--- a/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
+++ b/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\git\MOR\material\translation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\git\MOR\material\translation\DomicileRegistrationEvidence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D6D805-5FA8-4E95-A674-A79F8746A32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34046EB8-654D-4494-B37F-D38F50749107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18475" uniqueCount="3201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18471" uniqueCount="3219">
   <si>
     <t>Term URI</t>
   </si>
@@ -9624,6 +9624,60 @@
   </si>
   <si>
     <t>Dirección de la vivienda en la que la persona se encuentra empadronada</t>
+  </si>
+  <si>
+    <t>The uppermost administrative unit for the address, almost always a country.</t>
+  </si>
+  <si>
+    <t>La unidad administrativa superior para la dirección, casi siempre un país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitate administrativă superioară, spre exemplu o țară. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Najvišja upravna enota za naslov skoraj vedno državo. </t>
+  </si>
+  <si>
+    <t>A unidade administrativa superior para o endereço, quase sempre um país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'unité administrative la plus haute pour l'adresse, presque toujours un pays. </t>
+  </si>
+  <si>
+    <t>The region of the address, usually a county, province or other such area that typically encompasses several localities.</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Regija</t>
+  </si>
+  <si>
+    <t>Država</t>
+  </si>
+  <si>
+    <t>Regiune</t>
+  </si>
+  <si>
+    <t>Țară</t>
   </si>
 </sst>
 </file>
@@ -63038,8 +63092,8 @@
   <dimension ref="A1:AC340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M12" sqref="M12"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63660,10 +63714,10 @@
         <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3040</v>
+        <v>3209</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>3041</v>
+        <v>3207</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>3042</v>
@@ -63672,7 +63726,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>3043</v>
+        <v>3210</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>3044</v>
@@ -63684,7 +63738,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>3038</v>
+        <v>3217</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>3039</v>
@@ -63696,7 +63750,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>3045</v>
+        <v>3215</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>3046</v>
@@ -63708,7 +63762,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>3047</v>
+        <v>3214</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>3048</v>
@@ -63720,7 +63774,7 @@
         <v>1</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>3049</v>
+        <v>3212</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>3050</v>
@@ -63747,10 +63801,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3053</v>
+        <v>3208</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3054</v>
+        <v>3201</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>2460</v>
@@ -63759,10 +63813,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>3055</v>
+        <v>3211</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>3056</v>
+        <v>3202</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>31</v>
@@ -63771,10 +63825,10 @@
         <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>3051</v>
+        <v>3218</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>3052</v>
+        <v>3203</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>31</v>
@@ -63783,10 +63837,10 @@
         <v>1</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>3057</v>
+        <v>3216</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>3058</v>
+        <v>3204</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>31</v>
@@ -63795,10 +63849,10 @@
         <v>1</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>3059</v>
+        <v>3211</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>3060</v>
+        <v>3205</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>31</v>
@@ -63807,10 +63861,10 @@
         <v>1</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>3061</v>
+        <v>3213</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>3062</v>
+        <v>3206</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>31</v>
@@ -92229,6 +92283,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
+++ b/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\git\MOR\material\translation\DomicileRegistrationEvidence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B99CF0E-1A02-4F58-A60A-22FE500FAA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DCD556-BCFF-4D0E-AA89-F1D048A70033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18471" uniqueCount="3219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19060" uniqueCount="3227">
   <si>
     <t>Term URI</t>
   </si>
@@ -9681,13 +9681,37 @@
   </si>
   <si>
     <t>Țară</t>
+  </si>
+  <si>
+    <t>CountryEnum/CY</t>
+  </si>
+  <si>
+    <t>NUTS0Enum/PO</t>
+  </si>
+  <si>
+    <t>Eurostat codes for EU Member States  according to the Nomenclature of territorial units for statistics (NUTS)</t>
+  </si>
+  <si>
+    <t>Códigos de Eurostat para los Estados miembros de la UE según la Nomenclatura de unidades territoriales estadísticas (NUTS)</t>
+  </si>
+  <si>
+    <t>Codurile Eurostat pentru statele membre ale UE conform Nomenclatorului unităților teritoriale de statistică (NUTS)</t>
+  </si>
+  <si>
+    <t>Eurostatove šifre držav članic EU po nomenklaturi statističnih teritorialnih enot (NUTS)</t>
+  </si>
+  <si>
+    <t>Códigos Eurostat para os Estados-Membros da UE de acordo com a Nomenclatura das unidades territoriais para estatísticas (NUTS)</t>
+  </si>
+  <si>
+    <t>Codes Eurostat pour les États membres de l'UE selon la Nomenclature des unités territoriales statistiques (NUTS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9818,6 +9842,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10194,7 +10226,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -10212,6 +10244,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -63092,11 +63127,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC340"/>
+  <dimension ref="A1:AC368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E343" sqref="E343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63712,7 +63747,9 @@
       <c r="C13" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>3171</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
@@ -63799,7 +63836,7 @@
       <c r="C14" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
@@ -92281,6 +92318,2386 @@
         <v>31</v>
       </c>
       <c r="AC340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D341" s="4"/>
+      <c r="E341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K341" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="L341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M341">
+        <v>1</v>
+      </c>
+      <c r="N341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O341" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="P341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q341">
+        <v>0</v>
+      </c>
+      <c r="R341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S341" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="T341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U341">
+        <v>0</v>
+      </c>
+      <c r="V341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W341" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="X341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA341" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AB341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D342" s="4"/>
+      <c r="E342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="N342" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="O342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="S342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U342">
+        <v>0</v>
+      </c>
+      <c r="V342" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="W342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y342">
+        <v>1</v>
+      </c>
+      <c r="Z342" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D343" s="4"/>
+      <c r="E343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M343">
+        <v>1</v>
+      </c>
+      <c r="N343" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="O343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="S343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U343">
+        <v>0</v>
+      </c>
+      <c r="V343" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="W343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y343">
+        <v>1</v>
+      </c>
+      <c r="Z343" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D344" s="4"/>
+      <c r="E344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M344">
+        <v>1</v>
+      </c>
+      <c r="N344" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="O344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q344">
+        <v>0</v>
+      </c>
+      <c r="R344" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="S344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U344">
+        <v>0</v>
+      </c>
+      <c r="V344" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="W344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y344">
+        <v>1</v>
+      </c>
+      <c r="Z344" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D345" s="4"/>
+      <c r="E345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I345">
+        <v>1</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="K345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M345">
+        <v>1</v>
+      </c>
+      <c r="N345" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="O345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q345">
+        <v>1</v>
+      </c>
+      <c r="R345" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="S345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U345">
+        <v>0</v>
+      </c>
+      <c r="V345" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="W345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y345">
+        <v>1</v>
+      </c>
+      <c r="Z345" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D346" s="4"/>
+      <c r="E346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M346">
+        <v>1</v>
+      </c>
+      <c r="N346" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="O346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q346">
+        <v>1</v>
+      </c>
+      <c r="R346" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="S346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U346">
+        <v>0</v>
+      </c>
+      <c r="V346" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="W346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y346">
+        <v>1</v>
+      </c>
+      <c r="Z346" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AA346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D347" s="4"/>
+      <c r="E347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="N347" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="O347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q347">
+        <v>1</v>
+      </c>
+      <c r="R347" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="S347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U347">
+        <v>0</v>
+      </c>
+      <c r="V347" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="W347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y347">
+        <v>1</v>
+      </c>
+      <c r="Z347" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="AA347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D348" s="4"/>
+      <c r="E348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="N348" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="O348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q348">
+        <v>1</v>
+      </c>
+      <c r="R348" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="S348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U348">
+        <v>0</v>
+      </c>
+      <c r="V348" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="W348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y348">
+        <v>1</v>
+      </c>
+      <c r="Z348" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="AA348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D349" s="4"/>
+      <c r="E349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+      <c r="N349" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="O349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q349">
+        <v>1</v>
+      </c>
+      <c r="R349" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="S349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U349">
+        <v>0</v>
+      </c>
+      <c r="V349" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="W349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y349">
+        <v>1</v>
+      </c>
+      <c r="Z349" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AA349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D350" s="4"/>
+      <c r="E350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+      <c r="N350" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q350">
+        <v>1</v>
+      </c>
+      <c r="R350" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="S350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U350">
+        <v>0</v>
+      </c>
+      <c r="V350" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="W350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y350">
+        <v>1</v>
+      </c>
+      <c r="Z350" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="AA350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D351" s="4"/>
+      <c r="E351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="O351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q351">
+        <v>1</v>
+      </c>
+      <c r="R351" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="S351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U351">
+        <v>0</v>
+      </c>
+      <c r="V351" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="W351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y351">
+        <v>1</v>
+      </c>
+      <c r="Z351" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="AA351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D352" s="4"/>
+      <c r="E352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="K352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="O352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q352">
+        <v>1</v>
+      </c>
+      <c r="R352" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="S352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U352">
+        <v>0</v>
+      </c>
+      <c r="V352" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="W352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y352">
+        <v>1</v>
+      </c>
+      <c r="Z352" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="AA352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D353" s="4"/>
+      <c r="E353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q353">
+        <v>1</v>
+      </c>
+      <c r="R353" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="S353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U353">
+        <v>0</v>
+      </c>
+      <c r="V353" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="W353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y353">
+        <v>1</v>
+      </c>
+      <c r="Z353" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AA353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D354" s="4"/>
+      <c r="E354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q354">
+        <v>1</v>
+      </c>
+      <c r="R354" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="S354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U354">
+        <v>0</v>
+      </c>
+      <c r="V354" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="W354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y354">
+        <v>1</v>
+      </c>
+      <c r="Z354" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AA354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D355" s="4"/>
+      <c r="E355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q355">
+        <v>1</v>
+      </c>
+      <c r="R355" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="S355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U355">
+        <v>0</v>
+      </c>
+      <c r="V355" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="W355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y355">
+        <v>1</v>
+      </c>
+      <c r="Z355" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AA355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D356" s="4"/>
+      <c r="E356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="O356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q356">
+        <v>1</v>
+      </c>
+      <c r="R356" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="S356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U356">
+        <v>0</v>
+      </c>
+      <c r="V356" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="W356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y356">
+        <v>1</v>
+      </c>
+      <c r="Z356" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AA356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D357" s="4"/>
+      <c r="E357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M357">
+        <v>1</v>
+      </c>
+      <c r="N357" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q357">
+        <v>1</v>
+      </c>
+      <c r="R357" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U357">
+        <v>0</v>
+      </c>
+      <c r="V357" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="W357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y357">
+        <v>1</v>
+      </c>
+      <c r="Z357" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AA357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB357" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D358" s="4"/>
+      <c r="E358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M358">
+        <v>1</v>
+      </c>
+      <c r="N358" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="O358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q358">
+        <v>1</v>
+      </c>
+      <c r="R358" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="S358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U358">
+        <v>0</v>
+      </c>
+      <c r="V358" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="W358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y358">
+        <v>1</v>
+      </c>
+      <c r="Z358" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AA358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB358" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D359" s="4"/>
+      <c r="E359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M359">
+        <v>1</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q359">
+        <v>1</v>
+      </c>
+      <c r="R359" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="S359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U359">
+        <v>0</v>
+      </c>
+      <c r="V359" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="W359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y359">
+        <v>1</v>
+      </c>
+      <c r="Z359" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AA359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D360" s="4"/>
+      <c r="E360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M360">
+        <v>1</v>
+      </c>
+      <c r="N360" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="O360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q360">
+        <v>1</v>
+      </c>
+      <c r="R360" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="S360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U360">
+        <v>0</v>
+      </c>
+      <c r="V360" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="W360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y360">
+        <v>1</v>
+      </c>
+      <c r="Z360" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AA360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB360" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D361" s="4"/>
+      <c r="E361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M361">
+        <v>1</v>
+      </c>
+      <c r="N361" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q361">
+        <v>1</v>
+      </c>
+      <c r="R361" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="S361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U361">
+        <v>0</v>
+      </c>
+      <c r="V361" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y361">
+        <v>1</v>
+      </c>
+      <c r="Z361" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AA361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB361" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D362" s="4"/>
+      <c r="E362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M362">
+        <v>1</v>
+      </c>
+      <c r="N362" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q362">
+        <v>1</v>
+      </c>
+      <c r="R362" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="S362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U362">
+        <v>0</v>
+      </c>
+      <c r="V362" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="W362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y362">
+        <v>1</v>
+      </c>
+      <c r="Z362" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AA362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB362" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D363" s="4"/>
+      <c r="E363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q363">
+        <v>1</v>
+      </c>
+      <c r="R363" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="S363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U363">
+        <v>0</v>
+      </c>
+      <c r="V363" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y363">
+        <v>1</v>
+      </c>
+      <c r="Z363" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AA363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D364" s="4"/>
+      <c r="E364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M364">
+        <v>1</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q364">
+        <v>1</v>
+      </c>
+      <c r="R364" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="S364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U364">
+        <v>0</v>
+      </c>
+      <c r="V364" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="W364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y364">
+        <v>1</v>
+      </c>
+      <c r="Z364" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AA364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D365" s="4"/>
+      <c r="E365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M365">
+        <v>1</v>
+      </c>
+      <c r="N365" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q365">
+        <v>1</v>
+      </c>
+      <c r="R365" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="S365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U365">
+        <v>0</v>
+      </c>
+      <c r="V365" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="W365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y365">
+        <v>1</v>
+      </c>
+      <c r="Z365" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AA365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB365" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D366" s="4"/>
+      <c r="E366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M366">
+        <v>1</v>
+      </c>
+      <c r="N366" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="O366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q366">
+        <v>1</v>
+      </c>
+      <c r="R366" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="S366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U366">
+        <v>0</v>
+      </c>
+      <c r="V366" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="W366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y366">
+        <v>1</v>
+      </c>
+      <c r="Z366" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AA366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB366" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D367" s="4"/>
+      <c r="E367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M367">
+        <v>1</v>
+      </c>
+      <c r="N367" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="O367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q367">
+        <v>1</v>
+      </c>
+      <c r="R367" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="S367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
+      </c>
+      <c r="V367" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="W367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y367">
+        <v>1</v>
+      </c>
+      <c r="Z367" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="AA367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB367" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D368" s="4"/>
+      <c r="E368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I368">
+        <v>1</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M368">
+        <v>1</v>
+      </c>
+      <c r="N368" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="O368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q368">
+        <v>1</v>
+      </c>
+      <c r="R368" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="S368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U368">
+        <v>0</v>
+      </c>
+      <c r="V368" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="W368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y368">
+        <v>1</v>
+      </c>
+      <c r="Z368" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AA368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB368" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC368">
         <v>0</v>
       </c>
     </row>

--- a/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
+++ b/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
@@ -331,9 +331,6 @@
     <t>La région de l'adresse, généralement un comté, un État ou un autre domaine de ce type qui englobe généralement plusieurs localités.</t>
   </si>
   <si>
-    <t>CountryEnum</t>
-  </si>
-  <si>
     <t>Unitate administrativă nivel 1</t>
   </si>
   <si>
@@ -1842,6 +1839,9 @@
   </si>
   <si>
     <t>L'ID d'agence émettrice</t>
+  </si>
+  <si>
+    <t>CountryEnum</t>
   </si>
   <si>
     <t>http://publications.europa.eu/resource/authority/country/</t>
@@ -10777,70 +10777,70 @@
         <v>67</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="17" t="s">
-        <v>106</v>
+      <c r="C14" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="19">
         <v>1.0</v>
       </c>
       <c r="J14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="M14" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="M14" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="N14" s="17" t="s">
+      <c r="O14" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="19">
         <v>1.0</v>
       </c>
       <c r="R14" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="S14" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>115</v>
       </c>
       <c r="T14" s="18"/>
       <c r="U14" s="19">
         <v>1.0</v>
       </c>
       <c r="V14" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="W14" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="19">
         <v>1.0</v>
       </c>
       <c r="Z14" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA14" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="AA14" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="AB14" s="15"/>
       <c r="AC14" s="20">
@@ -10849,10 +10849,10 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>92</v>
@@ -10862,20 +10862,20 @@
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="25">
         <v>1.0</v>
       </c>
       <c r="J15" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="L15" s="22">
         <v>28045.0</v>
@@ -10884,40 +10884,40 @@
         <v>1.0</v>
       </c>
       <c r="N15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>127</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="25">
         <v>1.0</v>
       </c>
       <c r="R15" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="T15" s="24"/>
       <c r="U15" s="25">
         <v>1.0</v>
       </c>
       <c r="V15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="W15" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="W15" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="X15" s="24"/>
       <c r="Y15" s="25">
         <v>1.0</v>
       </c>
       <c r="Z15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA15" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="AA15" s="22" t="s">
-        <v>133</v>
       </c>
       <c r="AB15" s="26"/>
       <c r="AC15" s="27">
@@ -10926,10 +10926,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>92</v>
@@ -10939,62 +10939,62 @@
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="19">
         <v>1.0</v>
       </c>
       <c r="J16" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="M16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="M16" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="N16" s="17" t="s">
+      <c r="O16" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="O16" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19">
         <v>1.0</v>
       </c>
       <c r="R16" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S16" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>144</v>
       </c>
       <c r="T16" s="18"/>
       <c r="U16" s="19">
         <v>1.0</v>
       </c>
       <c r="V16" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="W16" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="X16" s="18"/>
       <c r="Y16" s="19">
         <v>1.0</v>
       </c>
       <c r="Z16" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA16" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="AA16" s="17" t="s">
-        <v>148</v>
       </c>
       <c r="AB16" s="15"/>
       <c r="AC16" s="20">
@@ -11003,10 +11003,10 @@
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>92</v>
@@ -11016,62 +11016,62 @@
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="25">
         <v>1.0</v>
       </c>
       <c r="J17" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="L17" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="M17" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="M17" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="22" t="s">
+      <c r="O17" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>157</v>
       </c>
       <c r="P17" s="24"/>
       <c r="Q17" s="25">
         <v>1.0</v>
       </c>
       <c r="R17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="S17" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="S17" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="T17" s="24"/>
       <c r="U17" s="25">
         <v>1.0</v>
       </c>
       <c r="V17" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="W17" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="W17" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="X17" s="24"/>
       <c r="Y17" s="25">
         <v>1.0</v>
       </c>
       <c r="Z17" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA17" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="AA17" s="22" t="s">
-        <v>163</v>
       </c>
       <c r="AB17" s="26"/>
       <c r="AC17" s="27">
@@ -11080,10 +11080,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>92</v>
@@ -11093,62 +11093,62 @@
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="19">
         <v>1.0</v>
       </c>
       <c r="J18" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="M18" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="M18" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="N18" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>172</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19">
         <v>1.0</v>
       </c>
       <c r="R18" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="S18" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>174</v>
       </c>
       <c r="T18" s="18"/>
       <c r="U18" s="19">
         <v>1.0</v>
       </c>
       <c r="V18" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="W18" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="X18" s="18"/>
       <c r="Y18" s="19">
         <v>1.0</v>
       </c>
       <c r="Z18" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA18" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="AA18" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="AB18" s="15"/>
       <c r="AC18" s="20">
@@ -11157,10 +11157,10 @@
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>92</v>
@@ -11170,20 +11170,20 @@
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="25">
         <v>1.0</v>
       </c>
       <c r="J19" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="L19" s="22" t="s">
         <v>97</v>
@@ -11192,40 +11192,40 @@
         <v>1.0</v>
       </c>
       <c r="N19" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="P19" s="24"/>
       <c r="Q19" s="25">
         <v>1.0</v>
       </c>
       <c r="R19" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="S19" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="S19" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="T19" s="24"/>
       <c r="U19" s="25">
         <v>1.0</v>
       </c>
       <c r="V19" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="W19" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="W19" s="22" t="s">
-        <v>190</v>
       </c>
       <c r="X19" s="24"/>
       <c r="Y19" s="25">
         <v>1.0</v>
       </c>
       <c r="Z19" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA19" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="AA19" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="AB19" s="26"/>
       <c r="AC19" s="27">
@@ -11234,10 +11234,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>92</v>
@@ -11247,20 +11247,20 @@
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>196</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="19">
         <v>1.0</v>
       </c>
       <c r="J20" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>97</v>
@@ -11269,40 +11269,40 @@
         <v>1.0</v>
       </c>
       <c r="N20" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19">
         <v>1.0</v>
       </c>
       <c r="R20" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="S20" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="T20" s="18"/>
       <c r="U20" s="19">
         <v>1.0</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X20" s="18"/>
       <c r="Y20" s="19">
         <v>1.0</v>
       </c>
       <c r="Z20" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA20" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="AA20" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="AB20" s="15"/>
       <c r="AC20" s="20">
@@ -11311,10 +11311,10 @@
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>92</v>
@@ -11324,62 +11324,62 @@
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>209</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="25">
         <v>1.0</v>
       </c>
       <c r="J21" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="L21" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="M21" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="M21" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="N21" s="22" t="s">
+      <c r="O21" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="25">
         <v>1.0</v>
       </c>
       <c r="R21" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="S21" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="S21" s="22" t="s">
-        <v>216</v>
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="25">
         <v>1.0</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W21" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="25">
         <v>1.0</v>
       </c>
       <c r="Z21" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA21" s="22" t="s">
         <v>218</v>
-      </c>
-      <c r="AA21" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="AB21" s="26"/>
       <c r="AC21" s="27">
@@ -11395,10 +11395,10 @@
       <c r="D22" s="16"/>
       <c r="E22" s="15"/>
       <c r="F22" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>221</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="19">
@@ -11408,14 +11408,14 @@
         <v>74</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="19">
         <v>1.0</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
@@ -11423,17 +11423,17 @@
         <v>1.0</v>
       </c>
       <c r="R22" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="S22" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="T22" s="15"/>
       <c r="U22" s="19">
         <v>1.0</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W22" s="18"/>
       <c r="X22" s="15"/>
@@ -11441,7 +11441,7 @@
         <v>1.0</v>
       </c>
       <c r="Z22" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
@@ -11451,7 +11451,7 @@
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
@@ -11460,27 +11460,27 @@
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="25">
         <v>1.0</v>
       </c>
       <c r="J23" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="L23" s="26"/>
       <c r="M23" s="25">
         <v>1.0</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -11488,17 +11488,17 @@
         <v>1.0</v>
       </c>
       <c r="R23" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="S23" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="S23" s="22" t="s">
-        <v>235</v>
       </c>
       <c r="T23" s="26"/>
       <c r="U23" s="25">
         <v>1.0</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W23" s="24"/>
       <c r="X23" s="26"/>
@@ -11506,7 +11506,7 @@
         <v>1.0</v>
       </c>
       <c r="Z23" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
@@ -11516,31 +11516,31 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>241</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="19">
         <v>1.0</v>
       </c>
       <c r="J24" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>243</v>
       </c>
       <c r="L24" s="17">
         <v>1980.0</v>
@@ -11549,7 +11549,7 @@
         <v>1.0</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
@@ -11557,17 +11557,17 @@
         <v>1.0</v>
       </c>
       <c r="R24" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="S24" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="19">
         <v>1.0</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W24" s="18"/>
       <c r="X24" s="15"/>
@@ -11575,7 +11575,7 @@
         <v>1.0</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
@@ -11585,31 +11585,31 @@
     </row>
     <row r="25">
       <c r="A25" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25">
         <v>1.0</v>
       </c>
       <c r="J25" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" s="22" t="s">
         <v>252</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>253</v>
       </c>
       <c r="L25" s="22">
         <v>6.0</v>
@@ -11618,7 +11618,7 @@
         <v>1.0</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -11626,17 +11626,17 @@
         <v>1.0</v>
       </c>
       <c r="R25" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="S25" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="S25" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="T25" s="26"/>
       <c r="U25" s="25">
         <v>1.0</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W25" s="24"/>
       <c r="X25" s="26"/>
@@ -11644,7 +11644,7 @@
         <v>1.0</v>
       </c>
       <c r="Z25" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
@@ -11654,31 +11654,31 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="19">
         <v>1.0</v>
       </c>
       <c r="J26" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="K26" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="L26" s="17">
         <v>12.0</v>
@@ -11687,7 +11687,7 @@
         <v>1.0</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -11695,17 +11695,17 @@
         <v>1.0</v>
       </c>
       <c r="R26" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="S26" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="19">
         <v>1.0</v>
       </c>
       <c r="V26" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W26" s="18"/>
       <c r="X26" s="15"/>
@@ -11713,7 +11713,7 @@
         <v>1.0</v>
       </c>
       <c r="Z26" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
@@ -11723,40 +11723,40 @@
     </row>
     <row r="27">
       <c r="A27" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>273</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="25">
         <v>1.0</v>
       </c>
       <c r="J27" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="K27" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="L27" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="M27" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="N27" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="M27" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>277</v>
       </c>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -11764,17 +11764,17 @@
         <v>1.0</v>
       </c>
       <c r="R27" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="S27" s="22" t="s">
         <v>278</v>
-      </c>
-      <c r="S27" s="22" t="s">
-        <v>279</v>
       </c>
       <c r="T27" s="26"/>
       <c r="U27" s="25">
         <v>1.0</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W27" s="24"/>
       <c r="X27" s="26"/>
@@ -11782,7 +11782,7 @@
         <v>1.0</v>
       </c>
       <c r="Z27" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA27" s="26"/>
       <c r="AB27" s="26"/>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="17" t="s">
@@ -11803,27 +11803,27 @@
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="19">
         <v>1.0</v>
       </c>
       <c r="J28" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="K28" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="19">
         <v>1.0</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
@@ -11831,17 +11831,17 @@
         <v>1.0</v>
       </c>
       <c r="R28" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="S28" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="S28" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="T28" s="15"/>
       <c r="U28" s="19">
         <v>1.0</v>
       </c>
       <c r="V28" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W28" s="18"/>
       <c r="X28" s="15"/>
@@ -11849,7 +11849,7 @@
         <v>1.0</v>
       </c>
       <c r="Z28" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
@@ -11859,7 +11859,7 @@
     </row>
     <row r="29">
       <c r="A29" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="24"/>
@@ -11868,27 +11868,27 @@
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>292</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>293</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="25">
         <v>1.0</v>
       </c>
       <c r="J29" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="L29" s="26"/>
       <c r="M29" s="25">
         <v>1.0</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
@@ -11896,17 +11896,17 @@
         <v>1.0</v>
       </c>
       <c r="R29" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="S29" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="S29" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="T29" s="26"/>
       <c r="U29" s="25">
         <v>1.0</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W29" s="24"/>
       <c r="X29" s="26"/>
@@ -11914,7 +11914,7 @@
         <v>1.0</v>
       </c>
       <c r="Z29" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
@@ -11924,42 +11924,42 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="28" t="s">
         <v>303</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>304</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="19">
         <v>1.0</v>
       </c>
       <c r="J30" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="K30" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="L30" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="M30" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="N30" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="M30" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
@@ -11967,17 +11967,17 @@
         <v>1.0</v>
       </c>
       <c r="R30" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="S30" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="S30" s="17" t="s">
-        <v>312</v>
       </c>
       <c r="T30" s="15"/>
       <c r="U30" s="19">
         <v>1.0</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W30" s="18"/>
       <c r="X30" s="15"/>
@@ -11985,7 +11985,7 @@
         <v>1.0</v>
       </c>
       <c r="Z30" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
@@ -11995,42 +11995,42 @@
     </row>
     <row r="31">
       <c r="A31" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="25">
         <v>1.0</v>
       </c>
       <c r="J31" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="K31" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="L31" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="M31" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="N31" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="M31" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
@@ -12038,17 +12038,17 @@
         <v>1.0</v>
       </c>
       <c r="R31" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="S31" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="S31" s="22" t="s">
-        <v>324</v>
       </c>
       <c r="T31" s="26"/>
       <c r="U31" s="25">
         <v>1.0</v>
       </c>
       <c r="V31" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W31" s="24"/>
       <c r="X31" s="26"/>
@@ -12056,7 +12056,7 @@
         <v>1.0</v>
       </c>
       <c r="Z31" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
@@ -12066,21 +12066,21 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>328</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>329</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="19">
@@ -12090,7 +12090,7 @@
         <v>36</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="19">
@@ -12105,10 +12105,10 @@
         <v>1.0</v>
       </c>
       <c r="R32" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="S32" s="17" t="s">
         <v>331</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>332</v>
       </c>
       <c r="T32" s="15"/>
       <c r="U32" s="19">
@@ -12123,7 +12123,7 @@
         <v>1.0</v>
       </c>
       <c r="Z32" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
@@ -12133,38 +12133,38 @@
     </row>
     <row r="33">
       <c r="A33" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>336</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>337</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25">
         <v>1.0</v>
       </c>
       <c r="J33" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="K33" s="22" t="s">
         <v>338</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>339</v>
       </c>
       <c r="L33" s="26"/>
       <c r="M33" s="25">
         <v>1.0</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -12172,17 +12172,17 @@
         <v>1.0</v>
       </c>
       <c r="R33" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="S33" s="22" t="s">
         <v>341</v>
-      </c>
-      <c r="S33" s="22" t="s">
-        <v>342</v>
       </c>
       <c r="T33" s="26"/>
       <c r="U33" s="25">
         <v>1.0</v>
       </c>
       <c r="V33" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W33" s="24"/>
       <c r="X33" s="26"/>
@@ -12190,7 +12190,7 @@
         <v>1.0</v>
       </c>
       <c r="Z33" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
@@ -12207,7 +12207,7 @@
       <c r="D34" s="30"/>
       <c r="E34" s="15"/>
       <c r="F34" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -12223,7 +12223,7 @@
         <v>1.0</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
@@ -12237,7 +12237,7 @@
         <v>1.0</v>
       </c>
       <c r="V34" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
@@ -12245,7 +12245,7 @@
         <v>1.0</v>
       </c>
       <c r="Z34" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
@@ -12255,21 +12255,21 @@
     </row>
     <row r="35">
       <c r="A35" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="25">
@@ -12279,7 +12279,7 @@
         <v>36</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L35" s="26"/>
       <c r="M35" s="22">
@@ -12289,17 +12289,17 @@
         <v>40</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P35" s="26"/>
       <c r="Q35" s="22">
         <v>1.0</v>
       </c>
       <c r="R35" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S35" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T35" s="26"/>
       <c r="U35" s="22">
@@ -12309,17 +12309,17 @@
         <v>40</v>
       </c>
       <c r="W35" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X35" s="26"/>
       <c r="Y35" s="22">
         <v>1.0</v>
       </c>
       <c r="Z35" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA35" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB35" s="26"/>
       <c r="AC35" s="32">
@@ -12328,10 +12328,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>357</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>92</v>
@@ -12341,62 +12341,62 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>358</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>359</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="19">
         <v>1.0</v>
       </c>
       <c r="J36" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="K36" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="L36" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="M36" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="N36" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="M36" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="N36" s="17" t="s">
+      <c r="O36" s="17" t="s">
         <v>363</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>364</v>
       </c>
       <c r="P36" s="15"/>
       <c r="Q36" s="17">
         <v>1.0</v>
       </c>
       <c r="R36" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="S36" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="S36" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="T36" s="15"/>
       <c r="U36" s="17">
         <v>1.0</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X36" s="15"/>
       <c r="Y36" s="17">
         <v>1.0</v>
       </c>
       <c r="Z36" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA36" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="AA36" s="17" t="s">
-        <v>369</v>
       </c>
       <c r="AB36" s="15"/>
       <c r="AC36" s="31">
@@ -12405,7 +12405,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>30</v>
@@ -12455,10 +12455,10 @@
         <v>92</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>371</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>372</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>37</v>
@@ -12467,62 +12467,62 @@
         <v>45</v>
       </c>
       <c r="F38" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>374</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="25">
         <v>1.0</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K38" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="L38" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="M38" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="N38" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="M38" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="N38" s="22" t="s">
+      <c r="O38" s="22" t="s">
         <v>377</v>
-      </c>
-      <c r="O38" s="22" t="s">
-        <v>378</v>
       </c>
       <c r="P38" s="26"/>
       <c r="Q38" s="25">
         <v>1.0</v>
       </c>
       <c r="R38" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="S38" s="22" t="s">
         <v>379</v>
-      </c>
-      <c r="S38" s="22" t="s">
-        <v>380</v>
       </c>
       <c r="T38" s="26"/>
       <c r="U38" s="25">
         <v>1.0</v>
       </c>
       <c r="V38" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="W38" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X38" s="26"/>
       <c r="Y38" s="25">
         <v>1.0</v>
       </c>
       <c r="Z38" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA38" s="22" t="s">
         <v>382</v>
-      </c>
-      <c r="AA38" s="22" t="s">
-        <v>383</v>
       </c>
       <c r="AB38" s="26"/>
       <c r="AC38" s="27">
@@ -12531,73 +12531,73 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>384</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>385</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>386</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>387</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="19">
         <v>1.0</v>
       </c>
       <c r="J39" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="K39" s="17" t="s">
         <v>388</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>389</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="19">
         <v>1.0</v>
       </c>
       <c r="N39" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="O39" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>391</v>
       </c>
       <c r="P39" s="15"/>
       <c r="Q39" s="19">
         <v>1.0</v>
       </c>
       <c r="R39" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="S39" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>393</v>
       </c>
       <c r="T39" s="15"/>
       <c r="U39" s="19">
         <v>1.0</v>
       </c>
       <c r="V39" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="W39" s="17" t="s">
         <v>394</v>
-      </c>
-      <c r="W39" s="17" t="s">
-        <v>395</v>
       </c>
       <c r="X39" s="15"/>
       <c r="Y39" s="19">
         <v>1.0</v>
       </c>
       <c r="Z39" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA39" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="AA39" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="AB39" s="15"/>
       <c r="AC39" s="20">
@@ -12606,73 +12606,73 @@
     </row>
     <row r="40">
       <c r="A40" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>398</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>399</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>400</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>401</v>
       </c>
       <c r="H40" s="26"/>
       <c r="I40" s="25">
         <v>1.0</v>
       </c>
       <c r="J40" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="K40" s="22" t="s">
         <v>402</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>403</v>
       </c>
       <c r="L40" s="26"/>
       <c r="M40" s="25">
         <v>1.0</v>
       </c>
       <c r="N40" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="O40" s="22" t="s">
         <v>404</v>
-      </c>
-      <c r="O40" s="22" t="s">
-        <v>405</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="25">
         <v>1.0</v>
       </c>
       <c r="R40" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="S40" s="22" t="s">
         <v>406</v>
-      </c>
-      <c r="S40" s="22" t="s">
-        <v>407</v>
       </c>
       <c r="T40" s="26"/>
       <c r="U40" s="25">
         <v>1.0</v>
       </c>
       <c r="V40" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W40" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X40" s="26"/>
       <c r="Y40" s="25">
         <v>1.0</v>
       </c>
       <c r="Z40" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA40" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="AA40" s="22" t="s">
-        <v>410</v>
       </c>
       <c r="AB40" s="26"/>
       <c r="AC40" s="27">
@@ -12685,7 +12685,7 @@
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>37</v>
@@ -12694,20 +12694,20 @@
         <v>38</v>
       </c>
       <c r="F41" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="19">
         <v>1.0</v>
       </c>
       <c r="J41" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="K41" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="L41" s="34">
         <v>44340.0</v>
@@ -12716,40 +12716,40 @@
         <v>1.0</v>
       </c>
       <c r="N41" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="O41" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="O41" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="19">
         <v>1.0</v>
       </c>
       <c r="R41" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="S41" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="S41" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="T41" s="15"/>
       <c r="U41" s="19">
         <v>1.0</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W41" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="X41" s="15"/>
       <c r="Y41" s="19">
         <v>1.0</v>
       </c>
       <c r="Z41" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA41" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AB41" s="15"/>
       <c r="AC41" s="20">
@@ -12758,73 +12758,73 @@
     </row>
     <row r="42">
       <c r="A42" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>371</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>372</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>422</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>423</v>
       </c>
       <c r="H42" s="26"/>
       <c r="I42" s="25">
         <v>1.0</v>
       </c>
       <c r="J42" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="K42" s="22" t="s">
         <v>424</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>425</v>
       </c>
       <c r="L42" s="26"/>
       <c r="M42" s="25">
         <v>1.0</v>
       </c>
       <c r="N42" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="O42" s="22" t="s">
         <v>426</v>
-      </c>
-      <c r="O42" s="22" t="s">
-        <v>427</v>
       </c>
       <c r="P42" s="26"/>
       <c r="Q42" s="25">
         <v>1.0</v>
       </c>
       <c r="R42" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="25">
         <v>1.0</v>
       </c>
       <c r="V42" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="W42" s="22" t="s">
         <v>429</v>
-      </c>
-      <c r="W42" s="22" t="s">
-        <v>430</v>
       </c>
       <c r="X42" s="26"/>
       <c r="Y42" s="25">
         <v>1.0</v>
       </c>
       <c r="Z42" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA42" s="22" t="s">
         <v>431</v>
-      </c>
-      <c r="AA42" s="22" t="s">
-        <v>432</v>
       </c>
       <c r="AB42" s="26"/>
       <c r="AC42" s="27">
@@ -12833,23 +12833,23 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>434</v>
-      </c>
       <c r="C43" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="19">
@@ -12859,7 +12859,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="19">
@@ -12869,17 +12869,17 @@
         <v>40</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="19">
         <v>1.0</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T43" s="15"/>
       <c r="U43" s="19">
@@ -12889,17 +12889,17 @@
         <v>40</v>
       </c>
       <c r="W43" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X43" s="15"/>
       <c r="Y43" s="19">
         <v>1.0</v>
       </c>
       <c r="Z43" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA43" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AB43" s="15"/>
       <c r="AC43" s="20">
@@ -12908,73 +12908,73 @@
     </row>
     <row r="44">
       <c r="A44" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>442</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>443</v>
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="25">
         <v>1.0</v>
       </c>
       <c r="J44" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="K44" s="22" t="s">
         <v>444</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>445</v>
       </c>
       <c r="L44" s="26"/>
       <c r="M44" s="25">
         <v>1.0</v>
       </c>
       <c r="N44" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="O44" s="22" t="s">
         <v>446</v>
-      </c>
-      <c r="O44" s="22" t="s">
-        <v>447</v>
       </c>
       <c r="P44" s="26"/>
       <c r="Q44" s="25">
         <v>1.0</v>
       </c>
       <c r="R44" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="S44" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="S44" s="22" t="s">
-        <v>449</v>
       </c>
       <c r="T44" s="26"/>
       <c r="U44" s="25">
         <v>1.0</v>
       </c>
       <c r="V44" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="W44" s="22" t="s">
         <v>450</v>
-      </c>
-      <c r="W44" s="22" t="s">
-        <v>451</v>
       </c>
       <c r="X44" s="26"/>
       <c r="Y44" s="25">
         <v>1.0</v>
       </c>
       <c r="Z44" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA44" s="22" t="s">
         <v>452</v>
-      </c>
-      <c r="AA44" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="AB44" s="26"/>
       <c r="AC44" s="27">
@@ -12983,73 +12983,73 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="G45" s="17" t="s">
         <v>455</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>456</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="19">
         <v>1.0</v>
       </c>
       <c r="J45" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="K45" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>458</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="19">
         <v>1.0</v>
       </c>
       <c r="N45" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="O45" s="17" t="s">
         <v>459</v>
-      </c>
-      <c r="O45" s="17" t="s">
-        <v>460</v>
       </c>
       <c r="P45" s="15"/>
       <c r="Q45" s="19">
         <v>1.0</v>
       </c>
       <c r="R45" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="S45" s="17" t="s">
         <v>461</v>
-      </c>
-      <c r="S45" s="17" t="s">
-        <v>462</v>
       </c>
       <c r="T45" s="15"/>
       <c r="U45" s="19">
         <v>1.0</v>
       </c>
       <c r="V45" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="W45" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="W45" s="17" t="s">
-        <v>464</v>
       </c>
       <c r="X45" s="15"/>
       <c r="Y45" s="19">
         <v>1.0</v>
       </c>
       <c r="Z45" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA45" s="17" t="s">
         <v>465</v>
-      </c>
-      <c r="AA45" s="17" t="s">
-        <v>466</v>
       </c>
       <c r="AB45" s="15"/>
       <c r="AC45" s="20">
@@ -13058,73 +13058,73 @@
     </row>
     <row r="46">
       <c r="A46" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>468</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>469</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="25">
         <v>1.0</v>
       </c>
       <c r="J46" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="K46" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>471</v>
       </c>
       <c r="L46" s="26"/>
       <c r="M46" s="25">
         <v>1.0</v>
       </c>
       <c r="N46" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="O46" s="22" t="s">
         <v>472</v>
-      </c>
-      <c r="O46" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="P46" s="26"/>
       <c r="Q46" s="25">
         <v>1.0</v>
       </c>
       <c r="R46" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="S46" s="22" t="s">
         <v>474</v>
-      </c>
-      <c r="S46" s="22" t="s">
-        <v>475</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="25">
         <v>1.0</v>
       </c>
       <c r="V46" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="W46" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="W46" s="22" t="s">
-        <v>477</v>
       </c>
       <c r="X46" s="26"/>
       <c r="Y46" s="25">
         <v>1.0</v>
       </c>
       <c r="Z46" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA46" s="22" t="s">
         <v>478</v>
-      </c>
-      <c r="AA46" s="22" t="s">
-        <v>479</v>
       </c>
       <c r="AB46" s="26"/>
       <c r="AC46" s="27">
@@ -13133,73 +13133,73 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>481</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>482</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="19">
         <v>1.0</v>
       </c>
       <c r="J47" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="K47" s="17" t="s">
         <v>483</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>484</v>
       </c>
       <c r="L47" s="15"/>
       <c r="M47" s="19">
         <v>1.0</v>
       </c>
       <c r="N47" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="O47" s="17" t="s">
         <v>485</v>
-      </c>
-      <c r="O47" s="17" t="s">
-        <v>486</v>
       </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="19">
         <v>1.0</v>
       </c>
       <c r="R47" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="S47" s="17" t="s">
         <v>487</v>
-      </c>
-      <c r="S47" s="17" t="s">
-        <v>488</v>
       </c>
       <c r="T47" s="15"/>
       <c r="U47" s="19">
         <v>1.0</v>
       </c>
       <c r="V47" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="W47" s="17" t="s">
         <v>489</v>
-      </c>
-      <c r="W47" s="17" t="s">
-        <v>490</v>
       </c>
       <c r="X47" s="15"/>
       <c r="Y47" s="19">
         <v>1.0</v>
       </c>
       <c r="Z47" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA47" s="17" t="s">
         <v>491</v>
-      </c>
-      <c r="AA47" s="17" t="s">
-        <v>492</v>
       </c>
       <c r="AB47" s="15"/>
       <c r="AC47" s="20">
@@ -13208,73 +13208,73 @@
     </row>
     <row r="48">
       <c r="A48" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>495</v>
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="25">
         <v>1.0</v>
       </c>
       <c r="J48" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="K48" s="22" t="s">
         <v>496</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>497</v>
       </c>
       <c r="L48" s="26"/>
       <c r="M48" s="25">
         <v>1.0</v>
       </c>
       <c r="N48" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="O48" s="22" t="s">
         <v>498</v>
-      </c>
-      <c r="O48" s="22" t="s">
-        <v>499</v>
       </c>
       <c r="P48" s="26"/>
       <c r="Q48" s="25">
         <v>1.0</v>
       </c>
       <c r="R48" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="S48" s="22" t="s">
         <v>500</v>
-      </c>
-      <c r="S48" s="22" t="s">
-        <v>501</v>
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="25">
         <v>1.0</v>
       </c>
       <c r="V48" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="W48" s="22" t="s">
         <v>502</v>
-      </c>
-      <c r="W48" s="22" t="s">
-        <v>503</v>
       </c>
       <c r="X48" s="26"/>
       <c r="Y48" s="25">
         <v>1.0</v>
       </c>
       <c r="Z48" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA48" s="22" t="s">
         <v>504</v>
-      </c>
-      <c r="AA48" s="22" t="s">
-        <v>505</v>
       </c>
       <c r="AB48" s="26"/>
       <c r="AC48" s="27">
@@ -13283,73 +13283,73 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>506</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>507</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>508</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>509</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="19">
         <v>1.0</v>
       </c>
       <c r="J49" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="K49" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="L49" s="15"/>
       <c r="M49" s="19">
         <v>1.0</v>
       </c>
       <c r="N49" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="O49" s="17" t="s">
         <v>512</v>
-      </c>
-      <c r="O49" s="17" t="s">
-        <v>513</v>
       </c>
       <c r="P49" s="15"/>
       <c r="Q49" s="19">
         <v>1.0</v>
       </c>
       <c r="R49" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="S49" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="S49" s="17" t="s">
-        <v>515</v>
       </c>
       <c r="T49" s="15"/>
       <c r="U49" s="19">
         <v>1.0</v>
       </c>
       <c r="V49" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="W49" s="17" t="s">
         <v>516</v>
-      </c>
-      <c r="W49" s="17" t="s">
-        <v>517</v>
       </c>
       <c r="X49" s="15"/>
       <c r="Y49" s="19">
         <v>1.0</v>
       </c>
       <c r="Z49" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA49" s="17" t="s">
         <v>518</v>
-      </c>
-      <c r="AA49" s="17" t="s">
-        <v>519</v>
       </c>
       <c r="AB49" s="15"/>
       <c r="AC49" s="20">
@@ -13358,73 +13358,73 @@
     </row>
     <row r="50">
       <c r="A50" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>521</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>522</v>
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="25">
         <v>1.0</v>
       </c>
       <c r="J50" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="K50" s="22" t="s">
         <v>523</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>524</v>
       </c>
       <c r="L50" s="26"/>
       <c r="M50" s="25">
         <v>1.0</v>
       </c>
       <c r="N50" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="O50" s="22" t="s">
         <v>525</v>
-      </c>
-      <c r="O50" s="22" t="s">
-        <v>526</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="25">
         <v>1.0</v>
       </c>
       <c r="R50" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="S50" s="22" t="s">
         <v>527</v>
-      </c>
-      <c r="S50" s="22" t="s">
-        <v>528</v>
       </c>
       <c r="T50" s="26"/>
       <c r="U50" s="25">
         <v>1.0</v>
       </c>
       <c r="V50" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="W50" s="22" t="s">
         <v>529</v>
-      </c>
-      <c r="W50" s="22" t="s">
-        <v>530</v>
       </c>
       <c r="X50" s="26"/>
       <c r="Y50" s="25">
         <v>1.0</v>
       </c>
       <c r="Z50" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA50" s="22" t="s">
         <v>531</v>
-      </c>
-      <c r="AA50" s="22" t="s">
-        <v>532</v>
       </c>
       <c r="AB50" s="26"/>
       <c r="AC50" s="27">
@@ -13436,16 +13436,16 @@
         <v>36</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="30"/>
       <c r="E51" s="15"/>
       <c r="F51" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="19">
@@ -13455,7 +13455,7 @@
         <v>36</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L51" s="15"/>
       <c r="M51" s="19">
@@ -13465,17 +13465,17 @@
         <v>40</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P51" s="15"/>
       <c r="Q51" s="19">
         <v>1.0</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T51" s="15"/>
       <c r="U51" s="19">
@@ -13485,17 +13485,17 @@
         <v>40</v>
       </c>
       <c r="W51" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X51" s="15"/>
       <c r="Y51" s="19">
         <v>1.0</v>
       </c>
       <c r="Z51" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA51" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB51" s="15"/>
       <c r="AC51" s="20">
@@ -13504,10 +13504,10 @@
     </row>
     <row r="52">
       <c r="A52" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>540</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>541</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>92</v>
@@ -13517,62 +13517,62 @@
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="G52" s="22" t="s">
         <v>542</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>543</v>
       </c>
       <c r="H52" s="26"/>
       <c r="I52" s="25">
         <v>1.0</v>
       </c>
       <c r="J52" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="K52" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="K52" s="22" t="s">
+      <c r="L52" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="L52" s="22" t="s">
+      <c r="M52" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="N52" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="M52" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="N52" s="22" t="s">
+      <c r="O52" s="22" t="s">
         <v>547</v>
-      </c>
-      <c r="O52" s="22" t="s">
-        <v>548</v>
       </c>
       <c r="P52" s="26"/>
       <c r="Q52" s="25">
         <v>1.0</v>
       </c>
       <c r="R52" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="S52" s="22" t="s">
         <v>549</v>
-      </c>
-      <c r="S52" s="22" t="s">
-        <v>550</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="25">
         <v>1.0</v>
       </c>
       <c r="V52" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="W52" s="22" t="s">
         <v>551</v>
-      </c>
-      <c r="W52" s="22" t="s">
-        <v>552</v>
       </c>
       <c r="X52" s="26"/>
       <c r="Y52" s="25">
         <v>1.0</v>
       </c>
       <c r="Z52" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA52" s="22" t="s">
         <v>553</v>
-      </c>
-      <c r="AA52" s="22" t="s">
-        <v>554</v>
       </c>
       <c r="AB52" s="26"/>
       <c r="AC52" s="27">
@@ -13581,10 +13581,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>555</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>556</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>92</v>
@@ -13594,62 +13594,62 @@
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="G53" s="17" t="s">
         <v>557</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>558</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="19">
         <v>1.0</v>
       </c>
       <c r="J53" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="K53" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="K53" s="17" t="s">
+      <c r="L53" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="L53" s="17" t="s">
+      <c r="M53" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="N53" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="M53" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="N53" s="17" t="s">
+      <c r="O53" s="17" t="s">
         <v>562</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>563</v>
       </c>
       <c r="P53" s="15"/>
       <c r="Q53" s="19">
         <v>1.0</v>
       </c>
       <c r="R53" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="S53" s="17" t="s">
         <v>564</v>
-      </c>
-      <c r="S53" s="17" t="s">
-        <v>565</v>
       </c>
       <c r="T53" s="15"/>
       <c r="U53" s="19">
         <v>1.0</v>
       </c>
       <c r="V53" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W53" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="X53" s="15"/>
       <c r="Y53" s="19">
         <v>1.0</v>
       </c>
       <c r="Z53" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA53" s="17" t="s">
         <v>567</v>
-      </c>
-      <c r="AA53" s="17" t="s">
-        <v>568</v>
       </c>
       <c r="AB53" s="15"/>
       <c r="AC53" s="20">
@@ -13658,10 +13658,10 @@
     </row>
     <row r="54">
       <c r="A54" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>569</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>570</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>44</v>
@@ -13671,20 +13671,20 @@
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>571</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>572</v>
       </c>
       <c r="H54" s="26"/>
       <c r="I54" s="25">
         <v>1.0</v>
       </c>
       <c r="J54" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="K54" s="22" t="s">
         <v>573</v>
-      </c>
-      <c r="K54" s="22" t="s">
-        <v>574</v>
       </c>
       <c r="L54" s="35">
         <v>21045.0</v>
@@ -13696,37 +13696,37 @@
         <v>48</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="25">
         <v>1.0</v>
       </c>
       <c r="R54" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="S54" s="22" t="s">
         <v>576</v>
-      </c>
-      <c r="S54" s="22" t="s">
-        <v>577</v>
       </c>
       <c r="T54" s="26"/>
       <c r="U54" s="25">
         <v>1.0</v>
       </c>
       <c r="V54" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="W54" s="22" t="s">
         <v>578</v>
-      </c>
-      <c r="W54" s="22" t="s">
-        <v>579</v>
       </c>
       <c r="X54" s="26"/>
       <c r="Y54" s="25">
         <v>1.0</v>
       </c>
       <c r="Z54" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA54" s="22" t="s">
         <v>580</v>
-      </c>
-      <c r="AA54" s="22" t="s">
-        <v>581</v>
       </c>
       <c r="AB54" s="26"/>
       <c r="AC54" s="27">
@@ -13735,10 +13735,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>582</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>583</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>92</v>
@@ -13748,23 +13748,23 @@
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="G55" s="17" t="s">
         <v>584</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>585</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="19">
         <v>1.0</v>
       </c>
       <c r="J55" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="K55" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="L55" s="17" t="s">
         <v>587</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>588</v>
       </c>
       <c r="M55" s="19">
         <v>1.0</v>
@@ -13773,37 +13773,37 @@
         <v>54</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P55" s="15"/>
       <c r="Q55" s="19">
         <v>1.0</v>
       </c>
       <c r="R55" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="S55" s="17" t="s">
         <v>590</v>
-      </c>
-      <c r="S55" s="17" t="s">
-        <v>591</v>
       </c>
       <c r="T55" s="15"/>
       <c r="U55" s="19">
         <v>1.0</v>
       </c>
       <c r="V55" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="W55" s="17" t="s">
         <v>592</v>
-      </c>
-      <c r="W55" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="X55" s="15"/>
       <c r="Y55" s="19">
         <v>1.0</v>
       </c>
       <c r="Z55" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA55" s="17" t="s">
         <v>594</v>
-      </c>
-      <c r="AA55" s="17" t="s">
-        <v>595</v>
       </c>
       <c r="AB55" s="15"/>
       <c r="AC55" s="20">
@@ -13812,75 +13812,75 @@
     </row>
     <row r="56">
       <c r="A56" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>597</v>
-      </c>
       <c r="C56" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E56" s="26"/>
       <c r="F56" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H56" s="26"/>
       <c r="I56" s="25">
         <v>1.0</v>
       </c>
       <c r="J56" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="K56" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="K56" s="22" t="s">
+      <c r="L56" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="L56" s="22" t="s">
+      <c r="M56" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="N56" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="M56" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="N56" s="22" t="s">
+      <c r="O56" s="22" t="s">
         <v>602</v>
-      </c>
-      <c r="O56" s="22" t="s">
-        <v>603</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="25">
         <v>1.0</v>
       </c>
       <c r="R56" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="S56" s="22" t="s">
         <v>604</v>
-      </c>
-      <c r="S56" s="22" t="s">
-        <v>605</v>
       </c>
       <c r="T56" s="26"/>
       <c r="U56" s="25">
         <v>1.0</v>
       </c>
       <c r="V56" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="W56" s="22" t="s">
         <v>606</v>
-      </c>
-      <c r="W56" s="22" t="s">
-        <v>607</v>
       </c>
       <c r="X56" s="26"/>
       <c r="Y56" s="25">
         <v>1.0</v>
       </c>
       <c r="Z56" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA56" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="AA56" s="22" t="s">
-        <v>609</v>
       </c>
       <c r="AB56" s="26"/>
       <c r="AC56" s="27">
@@ -13889,7 +13889,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>106</v>
+        <v>609</v>
       </c>
       <c r="B57" s="36" t="s">
         <v>610</v>
@@ -34814,7 +34814,7 @@
     </row>
     <row r="400">
       <c r="A400" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B400" s="17" t="s">
         <v>2667</v>
@@ -34845,7 +34845,7 @@
         <v>1.0</v>
       </c>
       <c r="N400" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O400" s="17" t="s">
         <v>2672</v>
@@ -34865,7 +34865,7 @@
         <v>1.0</v>
       </c>
       <c r="V400" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W400" s="17" t="s">
         <v>2675</v>
@@ -34981,7 +34981,7 @@
         <v>1.0</v>
       </c>
       <c r="J402" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K402" s="17" t="s">
         <v>2696</v>
@@ -35653,7 +35653,7 @@
     </row>
     <row r="413">
       <c r="A413" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B413" s="15"/>
       <c r="C413" s="15"/>
@@ -35668,7 +35668,7 @@
         <v>1.0</v>
       </c>
       <c r="J413" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K413" s="15"/>
       <c r="L413" s="15"/>
@@ -35723,7 +35723,7 @@
       </c>
       <c r="E414" s="26"/>
       <c r="F414" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G414" s="22" t="s">
         <v>2796</v>
@@ -35755,7 +35755,7 @@
         <v>1.0</v>
       </c>
       <c r="R414" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S414" s="22" t="s">
         <v>2799</v>
@@ -35775,7 +35775,7 @@
         <v>1.0</v>
       </c>
       <c r="Z414" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA414" s="22" t="s">
         <v>2801</v>
@@ -35791,7 +35791,7 @@
       </c>
       <c r="B415" s="15"/>
       <c r="C415" s="17" t="s">
-        <v>106</v>
+        <v>609</v>
       </c>
       <c r="D415" s="33">
         <v>11.0</v>
@@ -35808,19 +35808,19 @@
         <v>1.0</v>
       </c>
       <c r="J415" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K415" s="17" t="s">
         <v>2805</v>
       </c>
       <c r="L415" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M415" s="19">
         <v>1.0</v>
       </c>
       <c r="N415" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O415" s="17" t="s">
         <v>2806</v>
@@ -35830,7 +35830,7 @@
         <v>1.0</v>
       </c>
       <c r="R415" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S415" s="17" t="s">
         <v>2807</v>
@@ -35840,7 +35840,7 @@
         <v>1.0</v>
       </c>
       <c r="V415" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W415" s="17" t="s">
         <v>2808</v>
@@ -35850,7 +35850,7 @@
         <v>1.0</v>
       </c>
       <c r="Z415" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA415" s="17" t="s">
         <v>2809</v>
@@ -36633,7 +36633,7 @@
         <v>1.0</v>
       </c>
       <c r="R426" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S426" s="22" t="s">
         <v>2942</v>
@@ -36653,7 +36653,7 @@
         <v>1.0</v>
       </c>
       <c r="Z426" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA426" s="22" t="s">
         <v>2944</v>
@@ -36712,7 +36712,7 @@
         <v>1.0</v>
       </c>
       <c r="R427" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="S427" s="17" t="s">
         <v>2950</v>
@@ -36722,7 +36722,7 @@
         <v>1.0</v>
       </c>
       <c r="V427" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W427" s="17" t="s">
         <v>2951</v>
@@ -36732,7 +36732,7 @@
         <v>1.0</v>
       </c>
       <c r="Z427" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA427" s="17" t="s">
         <v>2952</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="E428" s="26"/>
       <c r="F428" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G428" s="22" t="s">
         <v>2954</v>
@@ -36785,7 +36785,7 @@
         <v>1.0</v>
       </c>
       <c r="R428" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S428" s="22" t="s">
         <v>2957</v>
@@ -36795,7 +36795,7 @@
         <v>1.0</v>
       </c>
       <c r="V428" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W428" s="22" t="s">
         <v>2958</v>
@@ -36805,7 +36805,7 @@
         <v>1.0</v>
       </c>
       <c r="Z428" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA428" s="22" t="s">
         <v>2959</v>
@@ -37142,7 +37142,7 @@
         <v>3000</v>
       </c>
       <c r="C434" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D434" s="29">
         <v>10.0</v>
@@ -37191,7 +37191,7 @@
       </c>
       <c r="B435" s="15"/>
       <c r="C435" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D435" s="33">
         <v>10.0</v>
@@ -37302,7 +37302,7 @@
         <v>74</v>
       </c>
       <c r="D437" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E437" s="15"/>
       <c r="F437" s="17" t="s">
@@ -37482,7 +37482,7 @@
         <v>1.0</v>
       </c>
       <c r="R439" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S439" s="22" t="s">
         <v>3037</v>
@@ -37502,7 +37502,7 @@
         <v>1.0</v>
       </c>
       <c r="Z439" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA439" s="22" t="s">
         <v>3039</v>
@@ -37565,7 +37565,7 @@
         <v>1.0</v>
       </c>
       <c r="R440" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="S440" s="17" t="s">
         <v>3045</v>
@@ -37575,7 +37575,7 @@
         <v>1.0</v>
       </c>
       <c r="V440" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W440" s="17" t="s">
         <v>3046</v>
@@ -37585,7 +37585,7 @@
         <v>1.0</v>
       </c>
       <c r="Z440" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA440" s="17" t="s">
         <v>3047</v>
@@ -37608,7 +37608,7 @@
       </c>
       <c r="E441" s="26"/>
       <c r="F441" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G441" s="22" t="s">
         <v>3049</v>
@@ -37638,7 +37638,7 @@
         <v>1.0</v>
       </c>
       <c r="R441" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S441" s="22" t="s">
         <v>3052</v>
@@ -37648,7 +37648,7 @@
         <v>1.0</v>
       </c>
       <c r="V441" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W441" s="22" t="s">
         <v>3053</v>
@@ -37658,7 +37658,7 @@
         <v>1.0</v>
       </c>
       <c r="Z441" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AA441" s="22" t="s">
         <v>3054</v>
@@ -38133,7 +38133,7 @@
       </c>
       <c r="B449" s="26"/>
       <c r="C449" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D449" s="29">
         <v>10.0</v>
@@ -38191,13 +38191,13 @@
         <v>3115</v>
       </c>
       <c r="B450" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C450" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D450" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E450" s="15"/>
       <c r="F450" s="17" t="s">
@@ -38272,13 +38272,13 @@
         <v>3130</v>
       </c>
       <c r="B451" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C451" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D451" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E451" s="26"/>
       <c r="F451" s="22" t="s">
@@ -38578,7 +38578,7 @@
         <v>3184</v>
       </c>
       <c r="B455" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C455" s="22" t="s">
         <v>92</v>

--- a/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
+++ b/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
@@ -217,7 +217,7 @@
     <t>LocationAddress/AdminUnitL1</t>
   </si>
   <si>
-    <t>DomicileRegistrationEvidence/CertifiesDomicileRegistration</t>
+    <t>DomicileRegistrationEvidence/CertifiesDomicile</t>
   </si>
   <si>
     <t>Certifies domicile registration</t>
@@ -232,7 +232,7 @@
     <t>Certificación del registro de empadronamiento.</t>
   </si>
   <si>
-    <t>DomicileRegistrationEvidence/CertifiesDomicileRegistration/Inhabitant</t>
+    <t>DomicileRegistrationEvidence/CertifiesDomicile/Inhabitant</t>
   </si>
   <si>
     <t>Person</t>
@@ -250,7 +250,7 @@
     <t>Datos de la persona que figura empadronada</t>
   </si>
   <si>
-    <t>DomicileRegistrationEvidence/CertifiesDomicileRegistration/Domicile</t>
+    <t>DomicileRegistrationEvidence/CertifiesDomicile/Domicile</t>
   </si>
   <si>
     <t>Address of the registered domicile</t>
@@ -40291,27 +40291,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="F280:G280"/>
+    <mergeCell ref="F374:G374"/>
+    <mergeCell ref="F380:G380"/>
+    <mergeCell ref="F381:G381"/>
+    <mergeCell ref="F382:G382"/>
+    <mergeCell ref="C419:D419"/>
+    <mergeCell ref="C420:D420"/>
     <mergeCell ref="C421:D421"/>
     <mergeCell ref="C422:D422"/>
     <mergeCell ref="C423:D423"/>
     <mergeCell ref="C424:D424"/>
     <mergeCell ref="O438:P438"/>
+    <mergeCell ref="F384:G384"/>
+    <mergeCell ref="F385:G385"/>
     <mergeCell ref="F389:G389"/>
     <mergeCell ref="F390:G390"/>
     <mergeCell ref="C416:D416"/>
     <mergeCell ref="C417:D417"/>
     <mergeCell ref="C418:D418"/>
-    <mergeCell ref="C419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="F374:G374"/>
-    <mergeCell ref="F280:G280"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="F380:G380"/>
-    <mergeCell ref="F381:G381"/>
-    <mergeCell ref="F382:G382"/>
-    <mergeCell ref="F384:G384"/>
-    <mergeCell ref="F385:G385"/>
-    <mergeCell ref="G57:H57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B57"/>

--- a/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
+++ b/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
@@ -350,7 +350,7 @@
     <t>Certifies domicile registration</t>
   </si>
   <si>
-    <t>Certifica el empadronamiento</t>
+    <t>Certifica el registro en el domicilio</t>
   </si>
   <si>
     <t>Certificación del registro de empadronamiento.</t>

--- a/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
+++ b/material/translation/DomicileRegistrationEvidence/MOR2_ro_en_es_sl_pt_fr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4736" uniqueCount="3348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4679" uniqueCount="3294">
   <si>
     <t>Term URI</t>
   </si>
@@ -9743,9 +9743,6 @@
     <t>xs:string</t>
   </si>
   <si>
-    <t>Dovezi Canonice</t>
-  </si>
-  <si>
     <t>Dovada emisă de autoritatea competentă în forma canonică a acelui tip de probe</t>
   </si>
   <si>
@@ -9761,30 +9758,12 @@
     <t>Evidencia emitida por la autoridad competente en la forma canónica de ese tipo de evidence</t>
   </si>
   <si>
-    <t>Kanonični dokazi</t>
-  </si>
-  <si>
     <t>Dokazilo, ki ga izda pristojni organ v kanonični obliki te vrste dokazila</t>
   </si>
   <si>
-    <t>Evidência Canônica</t>
-  </si>
-  <si>
-    <t>Provas emitidas pela autoridade competente na forma canónica desse tipo de prova</t>
-  </si>
-  <si>
-    <t>Preuve Canonique</t>
-  </si>
-  <si>
-    <t>Preuve délivrée par l'autorité compétente sous la forme canonique de ce type de preuve</t>
-  </si>
-  <si>
     <t>GUI/DomesticEvidence</t>
   </si>
   <si>
-    <t>Dovezi domestice</t>
-  </si>
-  <si>
     <t>Dovada emisă de autoritatea competentă în forma originală în format structurat</t>
   </si>
   <si>
@@ -9800,30 +9779,12 @@
     <t>Evidencia emitida por la autoridad competente en la forma original en formato estructurado</t>
   </si>
   <si>
-    <t>Domači dokazi</t>
-  </si>
-  <si>
     <t>Dokazila, ki jih izda pristojni organ v izvirni obliki v strukturirani obliki</t>
   </si>
   <si>
-    <t>Evidência doméstica</t>
-  </si>
-  <si>
-    <t>Provas emitidas pela autoridade competente no formulário original em formato estruturado</t>
-  </si>
-  <si>
-    <t>Preuve nationale</t>
-  </si>
-  <si>
-    <t>Preuve délivrée par l'autorité compétente sous la forme originale dans un format structuré</t>
-  </si>
-  <si>
     <t>GUI/DomesticEvidencePDF</t>
   </si>
   <si>
-    <t>Dovezi interne în PDF</t>
-  </si>
-  <si>
     <t>Dovada eliberata de autoritatea competenta in format PDF</t>
   </si>
   <si>
@@ -9839,47 +9800,18 @@
     <t>Evidencia emitida por la autoridad competente en formato PDF</t>
   </si>
   <si>
-    <t>Domači dokazi v PDF</t>
-  </si>
-  <si>
     <t>Dokazila, ki jih izda pristojni organ v formatu PDF</t>
   </si>
   <si>
-    <t>Evidências domésticas em PDF</t>
-  </si>
-  <si>
-    <t>Provas emitidas pela autoridade competente em formato PDF</t>
-  </si>
-  <si>
-    <t>Preuve nationale en PDF</t>
-  </si>
-  <si>
-    <t>Preuve délivrée par l'autorité compétente au format PDF</t>
-  </si>
-  <si>
     <t>GUI/de4a-legalInfo-content/de4a-section-title</t>
   </si>
   <si>
-    <t>Informații legale</t>
-  </si>
-  <si>
     <t>Legal Info</t>
   </si>
   <si>
     <t>Información legal</t>
   </si>
   <si>
-    <t xml:space="preserve">Pravne informacije
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informação legal
-</t>
-  </si>
-  <si>
-    <t>Information légale</t>
-  </si>
-  <si>
     <t>GUI/de4a-legalInfo-content/de4a-legalInfo-yellow</t>
   </si>
   <si>
@@ -9889,26 +9821,7 @@
     <t>Lea el siguiente texto antes de continuar</t>
   </si>
   <si>
-    <t>Preden nadaljujete, preberite naslednje besedilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leia o texto a seguir antes de continuar
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisez le texte suivant avant de continuer
-</t>
-  </si>
-  <si>
     <t>GUI/de4a-legalInfo-content/de4a-legalInfo-text</t>
-  </si>
-  <si>
-    <t>Utilizând acest proces, ne puteți solicita direct informații relevante și vă vom furniza
-ultima versiune pe care o avem.
-Veți putea să revizuiți informațiile și să alegeți dacă să le utilizați sau nu. Nu sunteți obligat să ne solicitați informații prin intermediul acestui serviciu. Dacă anulați acest proces, veți avea posibilitatea
-finalizați procesul căutând și trimițând manual informațiile.
-Vă rugăm să rețineți că acest serviciu face parte dintr-un proiect pilot. Selectând „Sunt de acord”, sunteți de acord să participați la programul pilot pe bază de voluntariat. Trebuie să utilizați informațiile pe care vi le punem la dispoziție numai în scopul de a completa
-procedura și pentru a verifica dacă procedura a fost finalizată cu succes. Consultați https://www.de4a.eu/aboutproject pentru mai multe detalii.</t>
   </si>
   <si>
     <t>By using this process, you can request relevant information directly from us, and we’ll provide you with the
@@ -9930,99 +9843,36 @@
 </t>
   </si>
   <si>
-    <t>Z uporabo tega postopka lahko neposredno od nas zahtevate ustrezne informacije in posredovali vam jih bomo
-najnovejšo različico, ki jo imamo.
-Podatke boste lahko pregledali in se odločili, ali jih želite uporabiti ali ne. Ni vam treba zahtevati informacij od nas prek te storitve. Če prekličete ta postopek, boste imeli možnost, da
-dokončajte svoj postopek z ročnim iskanjem in pošiljanjem informacij.
-Upoštevajte, da je ta storitev del pilotnega projekta. Z izbiro "Strinjam se" se strinjate s prostovoljnim sodelovanjem v pilotnem programu. Podatke, ki vam jih damo na voljo, uporabite samo za izpolnjevanje
-postopek in preveriti, ali je bil postopek uspešno zaključen. Za več podrobnosti glejte https://www.de4a.eu/aboutproject.</t>
-  </si>
-  <si>
-    <t>Ao usar este processo, você pode solicitar informações relevantes diretamente a nós e forneceremos a você o
-versão mais recente que temos.
-Você poderá revisar as informações e escolher se deseja ou não usá-las. Você não é obrigado a nos solicitar informações por meio deste serviço. Se cancelar este processo, terá a possibilidade de
-conclua seu processo pesquisando e enviando as informações manualmente.
-Observe que este serviço faz parte de um projeto piloto. Ao selecionar "Concordo", você concorda em participar do programa piloto de forma voluntária. Você só deve usar as informações que disponibilizamos para o propósito de completar o
-procedimento e para verificar se o procedimento foi concluído com sucesso. Veja https://www.de4a.eu/aboutproject para mais detalhes.</t>
-  </si>
-  <si>
-    <t>En utilisant ce processus, vous pouvez nous demander directement des informations pertinentes et nous vous fournirons les
-dernière version que nous avons.
-Vous pourrez consulter les informations et choisir de les utiliser ou non. Vous n'êtes pas obligé de nous demander des informations par le biais de ce service. Si vous annulez ce processus, vous aurez la possibilité de
-complétez votre processus en recherchant et en envoyant les informations manuellement.
-Veuillez noter que ce service fait partie d'un projet pilote. En sélectionnant "J'accepte", vous acceptez de participer au programme pilote sur une base volontaire. Vous ne devez utiliser les informations que nous mettons à votre disposition que dans le but de remplir le
-procédure et de vérifier que la procédure s'est déroulée avec succès. Voir https://www.de4a.eu/aboutproject pour plus de détails.</t>
-  </si>
-  <si>
     <t>GUI/de4a-section-header</t>
   </si>
   <si>
-    <t>Dovezi furnizate de</t>
-  </si>
-  <si>
     <t>Evidence provided by</t>
   </si>
   <si>
     <t>Evidencia proporcionada por</t>
   </si>
   <si>
-    <t>Dokaze predložil</t>
-  </si>
-  <si>
-    <t>Provas fornecidas por</t>
-  </si>
-  <si>
-    <t>Preuve fournie par</t>
-  </si>
-  <si>
     <t>GUI/de4a-section-header/PID</t>
   </si>
   <si>
-    <t>Platforma de brokeraj de date a Administrației generale a statului spaniol</t>
-  </si>
-  <si>
     <t>Spanish Data Intermediation Platform of the National State Administration</t>
   </si>
   <si>
     <t>la Plataforma de Intermediación de Datos de la Administración General del Estado español</t>
   </si>
   <si>
-    <t>Platforma za posredovanje podatkov generalne uprave španske države</t>
-  </si>
-  <si>
-    <t>a Plataforma de Corretagem de Dados da Administração Geral do Estado Espanhol</t>
-  </si>
-  <si>
-    <t>la Plate-forme de courtage de données de l'administration générale de l'État espagnol</t>
-  </si>
-  <si>
     <t>GUI/de4a-section-header/issuedBy</t>
   </si>
   <si>
-    <t>emis de</t>
-  </si>
-  <si>
     <t>issued by</t>
   </si>
   <si>
     <t>emitida por</t>
   </si>
   <si>
-    <t>ki ga oddaja</t>
-  </si>
-  <si>
-    <t>emitido por</t>
-  </si>
-  <si>
-    <t>émis par</t>
-  </si>
-  <si>
     <t>GUI/de4a-section-header/INE</t>
   </si>
   <si>
-    <t>Institutului Național de Statistică (INS)</t>
-  </si>
-  <si>
     <t>National Statistical Institute (NSI)</t>
   </si>
   <si>
@@ -10032,33 +9882,15 @@
     <t>Národným inštitútom pre štatistiku (NIS)</t>
   </si>
   <si>
-    <t>Instituto Nacional de Estatística (INE)</t>
-  </si>
-  <si>
-    <t>l'Institut national de la statistique (INS)</t>
-  </si>
-  <si>
     <t>GUI/Retrieve</t>
   </si>
   <si>
-    <t>Recupera</t>
-  </si>
-  <si>
     <t>Retrieve</t>
   </si>
   <si>
     <t>Proceder</t>
   </si>
   <si>
-    <t>Pridobi</t>
-  </si>
-  <si>
-    <t>Recuperar</t>
-  </si>
-  <si>
-    <t>Récupérer</t>
-  </si>
-  <si>
     <t>GUI/Reject</t>
   </si>
   <si>
@@ -10068,31 +9900,13 @@
     <t>Rechazar</t>
   </si>
   <si>
-    <t>Zavrni</t>
-  </si>
-  <si>
-    <t>Rejeitar</t>
-  </si>
-  <si>
     <t>GUI/Requester</t>
   </si>
   <si>
-    <t>Probele solicitate vor fi transmise următoarei autorități</t>
-  </si>
-  <si>
     <t>The requested evidence shall be submitted to the following authority</t>
   </si>
   <si>
     <t>La evidencia solicitada será enviada a la siguiente autoridad</t>
-  </si>
-  <si>
-    <t>Zahtevani dokazi bodo poslani naslednjemu organu</t>
-  </si>
-  <si>
-    <t>As provas solicitadas serão enviadas à seguinte autoridade</t>
-  </si>
-  <si>
-    <t>Les preuves demandées seront envoyées à l'autorité suivante</t>
   </si>
 </sst>
 </file>
@@ -10102,7 +9916,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -10139,11 +9953,6 @@
     </font>
     <font>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -10217,7 +10026,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -10395,9 +10204,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -39516,61 +39322,67 @@
       </c>
       <c r="D457" s="58"/>
       <c r="E457" s="59"/>
-      <c r="F457" s="57" t="s">
+      <c r="F457" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N457,""es"",""ro"")"),"Dovezi canonice")</f>
+        <v>Dovezi canonice</v>
+      </c>
+      <c r="G457" s="57" t="s">
         <v>3243</v>
-      </c>
-      <c r="G457" s="57" t="s">
-        <v>3244</v>
       </c>
       <c r="H457" s="59"/>
       <c r="I457" s="57">
         <v>0.0</v>
       </c>
       <c r="J457" s="57" t="s">
+        <v>3244</v>
+      </c>
+      <c r="K457" s="57" t="s">
         <v>3245</v>
-      </c>
-      <c r="K457" s="57" t="s">
-        <v>3246</v>
       </c>
       <c r="L457" s="59"/>
       <c r="M457" s="57">
         <v>1.0</v>
       </c>
       <c r="N457" s="57" t="s">
+        <v>3246</v>
+      </c>
+      <c r="O457" s="57" t="s">
         <v>3247</v>
-      </c>
-      <c r="O457" s="57" t="s">
-        <v>3248</v>
       </c>
       <c r="P457" s="59"/>
       <c r="Q457" s="57">
         <v>1.0</v>
       </c>
-      <c r="R457" s="60" t="s">
-        <v>3249</v>
+      <c r="R457" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N457,""es"",""sl"")"),"Kanonični dokazi")</f>
+        <v>Kanonični dokazi</v>
       </c>
       <c r="S457" s="57" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="T457" s="59"/>
       <c r="U457" s="57">
         <v>0.0</v>
       </c>
-      <c r="V457" s="60" t="s">
-        <v>3251</v>
-      </c>
-      <c r="W457" s="57" t="s">
-        <v>3252</v>
+      <c r="V457" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N457,""es"",""pt"")"),"Evidência canônica")</f>
+        <v>Evidência canônica</v>
+      </c>
+      <c r="W457" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O457,""es"",""pt"")"),"Evidências emitidas pela autoridade competente na forma canônica de tais evidências")</f>
+        <v>Evidências emitidas pela autoridade competente na forma canônica de tais evidências</v>
       </c>
       <c r="X457" s="59"/>
       <c r="Y457" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z457" s="57" t="s">
-        <v>3253</v>
-      </c>
-      <c r="AA457" s="57" t="s">
-        <v>3254</v>
+      <c r="Z457" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N457,""es"",""fr"")"),"Preuves canoniques")</f>
+        <v>Preuves canoniques</v>
+      </c>
+      <c r="AA457" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O457,""es"",""fr"")"),"Preuve émise par l'autorité compétente sous la forme canonique de ces preuves")</f>
+        <v>Preuve émise par l'autorité compétente sous la forme canonique de ces preuves</v>
       </c>
       <c r="AB457" s="59"/>
       <c r="AC457" s="57">
@@ -39579,7 +39391,7 @@
     </row>
     <row r="458">
       <c r="A458" s="57" t="s">
-        <v>3255</v>
+        <v>3249</v>
       </c>
       <c r="B458" s="57" t="s">
         <v>3242</v>
@@ -39589,61 +39401,67 @@
       </c>
       <c r="D458" s="58"/>
       <c r="E458" s="59"/>
-      <c r="F458" s="57" t="s">
-        <v>3256</v>
+      <c r="F458" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N458,""es"",""ro"")"),"Dovezi originale")</f>
+        <v>Dovezi originale</v>
       </c>
       <c r="G458" s="60" t="s">
-        <v>3257</v>
+        <v>3250</v>
       </c>
       <c r="H458" s="59"/>
       <c r="I458" s="57">
         <v>0.0</v>
       </c>
       <c r="J458" s="57" t="s">
-        <v>3258</v>
+        <v>3251</v>
       </c>
       <c r="K458" s="57" t="s">
-        <v>3259</v>
+        <v>3252</v>
       </c>
       <c r="L458" s="59"/>
       <c r="M458" s="57">
         <v>1.0</v>
       </c>
       <c r="N458" s="57" t="s">
-        <v>3260</v>
+        <v>3253</v>
       </c>
       <c r="O458" s="57" t="s">
-        <v>3261</v>
+        <v>3254</v>
       </c>
       <c r="P458" s="59"/>
       <c r="Q458" s="57">
         <v>1.0</v>
       </c>
-      <c r="R458" s="57" t="s">
-        <v>3262</v>
+      <c r="R458" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N458,""es"",""sl"")"),"Izvirni dokazi")</f>
+        <v>Izvirni dokazi</v>
       </c>
       <c r="S458" s="60" t="s">
-        <v>3263</v>
+        <v>3255</v>
       </c>
       <c r="T458" s="59"/>
       <c r="U458" s="57">
         <v>0.0</v>
       </c>
-      <c r="V458" s="57" t="s">
-        <v>3264</v>
-      </c>
-      <c r="W458" s="60" t="s">
-        <v>3265</v>
+      <c r="V458" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N458,""es"",""pt"")"),"Evidência original")</f>
+        <v>Evidência original</v>
+      </c>
+      <c r="W458" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O458,""es"",""pt"")"),"Evidências emitidas pela autoridade competente na forma original em formato estruturado")</f>
+        <v>Evidências emitidas pela autoridade competente na forma original em formato estruturado</v>
       </c>
       <c r="X458" s="59"/>
       <c r="Y458" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z458" s="57" t="s">
-        <v>3266</v>
-      </c>
-      <c r="AA458" s="60" t="s">
-        <v>3267</v>
+      <c r="Z458" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N458,""es"",""fr"")"),"Preuves originales")</f>
+        <v>Preuves originales</v>
+      </c>
+      <c r="AA458" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O458,""es"",""fr"")"),"Preuve émise par l'autorité compétente sous la forme originale au format structuré")</f>
+        <v>Preuve émise par l'autorité compétente sous la forme originale au format structuré</v>
       </c>
       <c r="AB458" s="59"/>
       <c r="AC458" s="57">
@@ -39652,7 +39470,7 @@
     </row>
     <row r="459">
       <c r="A459" s="57" t="s">
-        <v>3268</v>
+        <v>3256</v>
       </c>
       <c r="B459" s="57" t="s">
         <v>3242</v>
@@ -39662,61 +39480,67 @@
       </c>
       <c r="D459" s="58"/>
       <c r="E459" s="59"/>
-      <c r="F459" s="57" t="s">
-        <v>3269</v>
+      <c r="F459" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N459,""es"",""ro"")"),"Dovezi în format PDF")</f>
+        <v>Dovezi în format PDF</v>
       </c>
       <c r="G459" s="60" t="s">
-        <v>3270</v>
+        <v>3257</v>
       </c>
       <c r="H459" s="59"/>
       <c r="I459" s="57">
         <v>0.0</v>
       </c>
       <c r="J459" s="57" t="s">
-        <v>3271</v>
+        <v>3258</v>
       </c>
       <c r="K459" s="57" t="s">
-        <v>3272</v>
+        <v>3259</v>
       </c>
       <c r="L459" s="59"/>
       <c r="M459" s="57">
         <v>1.0</v>
       </c>
       <c r="N459" s="57" t="s">
-        <v>3273</v>
+        <v>3260</v>
       </c>
       <c r="O459" s="57" t="s">
-        <v>3274</v>
+        <v>3261</v>
       </c>
       <c r="P459" s="59"/>
       <c r="Q459" s="57">
         <v>1.0</v>
       </c>
-      <c r="R459" s="57" t="s">
-        <v>3275</v>
+      <c r="R459" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N459,""es"",""sl"")"),"Dokazi v obliki pdf")</f>
+        <v>Dokazi v obliki pdf</v>
       </c>
       <c r="S459" s="60" t="s">
-        <v>3276</v>
+        <v>3262</v>
       </c>
       <c r="T459" s="59"/>
       <c r="U459" s="57">
         <v>0.0</v>
       </c>
-      <c r="V459" s="57" t="s">
-        <v>3277</v>
-      </c>
-      <c r="W459" s="60" t="s">
-        <v>3278</v>
+      <c r="V459" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N459,""es"",""pt"")"),"Evidência em formato PDF")</f>
+        <v>Evidência em formato PDF</v>
+      </c>
+      <c r="W459" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O459,""es"",""pt"")"),"Evidências emitidas pela autoridade competente em formato PDF")</f>
+        <v>Evidências emitidas pela autoridade competente em formato PDF</v>
       </c>
       <c r="X459" s="59"/>
       <c r="Y459" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z459" s="57" t="s">
-        <v>3279</v>
-      </c>
-      <c r="AA459" s="60" t="s">
-        <v>3280</v>
+      <c r="Z459" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N459,""es"",""fr"")"),"Preuve au format PDF")</f>
+        <v>Preuve au format PDF</v>
+      </c>
+      <c r="AA459" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O459,""es"",""fr"")"),"Preuve émise par l'autorité compétente au format PDF")</f>
+        <v>Preuve émise par l'autorité compétente au format PDF</v>
       </c>
       <c r="AB459" s="59"/>
       <c r="AC459" s="57">
@@ -39725,7 +39549,7 @@
     </row>
     <row r="460">
       <c r="A460" s="57" t="s">
-        <v>3281</v>
+        <v>3263</v>
       </c>
       <c r="B460" s="57" t="s">
         <v>3242</v>
@@ -39735,8 +39559,9 @@
       </c>
       <c r="D460" s="58"/>
       <c r="E460" s="59"/>
-      <c r="F460" s="57" t="s">
-        <v>3282</v>
+      <c r="F460" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N460,""es"",""ro"")"),"Informații legale")</f>
+        <v>Informații legale</v>
       </c>
       <c r="G460" s="59"/>
       <c r="H460" s="59"/>
@@ -39744,7 +39569,7 @@
         <v>0.0</v>
       </c>
       <c r="J460" s="60" t="s">
-        <v>3283</v>
+        <v>3264</v>
       </c>
       <c r="K460" s="59"/>
       <c r="L460" s="59"/>
@@ -39752,31 +39577,34 @@
         <v>1.0</v>
       </c>
       <c r="N460" s="60" t="s">
-        <v>3284</v>
+        <v>3265</v>
       </c>
       <c r="O460" s="59"/>
       <c r="P460" s="59"/>
       <c r="Q460" s="57">
         <v>1.0</v>
       </c>
-      <c r="R460" s="57" t="s">
-        <v>3285</v>
+      <c r="R460" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N460,""es"",""sl"")"),"Pravne informacije")</f>
+        <v>Pravne informacije</v>
       </c>
       <c r="S460" s="59"/>
       <c r="T460" s="59"/>
       <c r="U460" s="57">
         <v>0.0</v>
       </c>
-      <c r="V460" s="57" t="s">
-        <v>3286</v>
+      <c r="V460" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N460,""es"",""pt"")"),"Informação legal")</f>
+        <v>Informação legal</v>
       </c>
       <c r="W460" s="59"/>
       <c r="X460" s="59"/>
       <c r="Y460" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z460" s="57" t="s">
-        <v>3287</v>
+      <c r="Z460" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N460,""es"",""fr"")"),"Information légale")</f>
+        <v>Information légale</v>
       </c>
       <c r="AA460" s="59"/>
       <c r="AB460" s="59"/>
@@ -39786,7 +39614,7 @@
     </row>
     <row r="461">
       <c r="A461" s="57" t="s">
-        <v>3288</v>
+        <v>3266</v>
       </c>
       <c r="B461" s="57" t="s">
         <v>3242</v>
@@ -39796,8 +39624,9 @@
       </c>
       <c r="D461" s="58"/>
       <c r="E461" s="59"/>
-      <c r="F461" s="57" t="s">
-        <v>3282</v>
+      <c r="F461" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N461,""es"",""ro"")"),"Citiți următorul text înainte de a continua")</f>
+        <v>Citiți următorul text înainte de a continua</v>
       </c>
       <c r="G461" s="59"/>
       <c r="H461" s="59"/>
@@ -39805,7 +39634,7 @@
         <v>0.0</v>
       </c>
       <c r="J461" s="60" t="s">
-        <v>3289</v>
+        <v>3267</v>
       </c>
       <c r="K461" s="59"/>
       <c r="L461" s="59"/>
@@ -39813,31 +39642,34 @@
         <v>1.0</v>
       </c>
       <c r="N461" s="60" t="s">
-        <v>3290</v>
+        <v>3268</v>
       </c>
       <c r="O461" s="59"/>
       <c r="P461" s="59"/>
       <c r="Q461" s="57">
         <v>1.0</v>
       </c>
-      <c r="R461" s="57" t="s">
-        <v>3291</v>
+      <c r="R461" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N461,""es"",""sl"")"),"Pred nadaljevanjem preberite naslednje besedilo")</f>
+        <v>Pred nadaljevanjem preberite naslednje besedilo</v>
       </c>
       <c r="S461" s="59"/>
       <c r="T461" s="59"/>
       <c r="U461" s="57">
         <v>0.0</v>
       </c>
-      <c r="V461" s="57" t="s">
-        <v>3292</v>
+      <c r="V461" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N461,""es"",""pt"")"),"Leia o seguinte texto antes de continuar")</f>
+        <v>Leia o seguinte texto antes de continuar</v>
       </c>
       <c r="W461" s="59"/>
       <c r="X461" s="59"/>
       <c r="Y461" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z461" s="57" t="s">
-        <v>3293</v>
+      <c r="Z461" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N461,""es"",""fr"")"),"Lisez le texte suivant avant de continuer")</f>
+        <v>Lisez le texte suivant avant de continuer</v>
       </c>
       <c r="AA461" s="59"/>
       <c r="AB461" s="59"/>
@@ -39847,7 +39679,7 @@
     </row>
     <row r="462">
       <c r="A462" s="57" t="s">
-        <v>3294</v>
+        <v>3269</v>
       </c>
       <c r="B462" s="57" t="s">
         <v>3242</v>
@@ -39857,8 +39689,21 @@
       </c>
       <c r="D462" s="58"/>
       <c r="E462" s="59"/>
-      <c r="F462" s="57" t="s">
-        <v>3295</v>
+      <c r="F462" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N462,""es"",""ro"")"),"Când utilizați acest proces, puteți solicita informații relevante direct și vă puteți furniza
+Mai multe versiuni actuale pe care le avem.
+Puteți verifica informațiile și alegeți dacă doriți sau nu să le utilizați. Nu sunteți obligat să solicitați informaț"&amp;"iile prin acest serviciu. Dacă acest proces se anulează, veți avea posibilitatea de a
+Completați procesul de căutare și trimiterea de informații manual.
+Rețineți că acest serviciu face parte dintr -un proiect pilot. Selectând „Accept”, el este de acord să"&amp;" participe în mod voluntar la programul pilot. Ar trebui să utilizați doar informațiile pe care le punem la dispoziție pentru a finaliza
+procedură și pentru a verifica dacă procedura a fost finalizată cu succes. Consultați https://www.de4a.eu/aboutproject"&amp;" pentru mai multe detalii.
+")</f>
+        <v>Când utilizați acest proces, puteți solicita informații relevante direct și vă puteți furniza
+Mai multe versiuni actuale pe care le avem.
+Puteți verifica informațiile și alegeți dacă doriți sau nu să le utilizați. Nu sunteți obligat să solicitați informațiile prin acest serviciu. Dacă acest proces se anulează, veți avea posibilitatea de a
+Completați procesul de căutare și trimiterea de informații manual.
+Rețineți că acest serviciu face parte dintr -un proiect pilot. Selectând „Accept”, el este de acord să participe în mod voluntar la programul pilot. Ar trebui să utilizați doar informațiile pe care le punem la dispoziție pentru a finaliza
+procedură și pentru a verifica dacă procedura a fost finalizată cu succes. Consultați https://www.de4a.eu/aboutproject pentru mai multe detalii.
+</v>
       </c>
       <c r="G462" s="59"/>
       <c r="H462" s="59"/>
@@ -39866,7 +39711,7 @@
         <v>0.0</v>
       </c>
       <c r="J462" s="57" t="s">
-        <v>3296</v>
+        <v>3270</v>
       </c>
       <c r="K462" s="59"/>
       <c r="L462" s="59"/>
@@ -39874,31 +39719,70 @@
         <v>1.0</v>
       </c>
       <c r="N462" s="57" t="s">
-        <v>3297</v>
+        <v>3271</v>
       </c>
       <c r="O462" s="59"/>
       <c r="P462" s="59"/>
       <c r="Q462" s="57">
         <v>1.0</v>
       </c>
-      <c r="R462" s="57" t="s">
-        <v>3298</v>
+      <c r="R462" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N462,""es"",""sl"")"),"Ko uporabljate ta postopek, lahko neposredno zahtevate ustrezne informacije in vam zagotovite
+Več trenutne različice imamo.
+Lahko preverite informacije in izberete, ali jih želite uporabiti ali ne. Ne želite zahtevati informacij prek te storitve. Če ta po"&amp;"stopek odpove, boste imeli možnost
+Izpolnite svoj postopek iskanja in pošiljanje informacij ročno.
+Upoštevajte, da je ta storitev del pilotskega projekta. Z izbiro ""Sprejmi"" se strinja, da bo prostovoljno sodeloval v pilotnem programu. Za dokončanje
+pos"&amp;"topek in preveriti, ali je bil postopek uspešno zaključen. Za več podrobnosti glejte https://www.de4a.eu/aboutProject.
+")</f>
+        <v>Ko uporabljate ta postopek, lahko neposredno zahtevate ustrezne informacije in vam zagotovite
+Več trenutne različice imamo.
+Lahko preverite informacije in izberete, ali jih želite uporabiti ali ne. Ne želite zahtevati informacij prek te storitve. Če ta postopek odpove, boste imeli možnost
+Izpolnite svoj postopek iskanja in pošiljanje informacij ročno.
+Upoštevajte, da je ta storitev del pilotskega projekta. Z izbiro "Sprejmi" se strinja, da bo prostovoljno sodeloval v pilotnem programu. Za dokončanje
+postopek in preveriti, ali je bil postopek uspešno zaključen. Za več podrobnosti glejte https://www.de4a.eu/aboutProject.
+</v>
       </c>
       <c r="S462" s="59"/>
       <c r="T462" s="59"/>
       <c r="U462" s="57">
         <v>0.0</v>
       </c>
-      <c r="V462" s="57" t="s">
-        <v>3299</v>
+      <c r="V462" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N462,""es"",""pt"")"),"Ao usar esse processo, você pode solicitar informações relevantes diretamente e fornecer a você o
+Versão mais atual que temos.
+Você pode verificar as informações e escolher se deseja ou não usá -las. Você não é obrigado a solicitar as informações através "&amp;"deste serviço. Se esse processo cancelar, você terá a possibilidade de
+Conclua seu processo procurando e enviando informações manualmente.
+Observe que este serviço faz parte de um projeto piloto. Ao selecionar ""Eu aceito"", ele concorda em participar do "&amp;"programa piloto voluntariamente. Você deve usar apenas as informações que colocamos à sua disposição para concluir o
+procedimento e para verificar se o procedimento foi concluído com sucesso. Consulte https://www.de4a.eu/aboutproject para obter mais detal"&amp;"hes.
+")</f>
+        <v>Ao usar esse processo, você pode solicitar informações relevantes diretamente e fornecer a você o
+Versão mais atual que temos.
+Você pode verificar as informações e escolher se deseja ou não usá -las. Você não é obrigado a solicitar as informações através deste serviço. Se esse processo cancelar, você terá a possibilidade de
+Conclua seu processo procurando e enviando informações manualmente.
+Observe que este serviço faz parte de um projeto piloto. Ao selecionar "Eu aceito", ele concorda em participar do programa piloto voluntariamente. Você deve usar apenas as informações que colocamos à sua disposição para concluir o
+procedimento e para verificar se o procedimento foi concluído com sucesso. Consulte https://www.de4a.eu/aboutproject para obter mais detalhes.
+</v>
       </c>
       <c r="W462" s="59"/>
       <c r="X462" s="59"/>
       <c r="Y462" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z462" s="57" t="s">
-        <v>3300</v>
+      <c r="Z462" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N462,""es"",""fr"")"),"Lorsque vous utilisez ce processus, vous pouvez demander directement des informations pertinentes et vous fournir
+Plus de version actuelle que nous avons.
+Vous pouvez vérifier les informations et choisir si vous souhaitez les utiliser ou non. Vous n'êtes "&amp;"pas obligé de demander les informations via ce service. Si ce processus annule, vous aurez la possibilité de
+Remplissez votre processus à la recherche et à l'envoi d'informations manuellement.
+Notez que ce service fait partie d'un projet pilote. En sélect"&amp;"ionnant ""j'accepte"", il accepte de participer volontairement au programme pilote. Vous devez uniquement utiliser les informations que nous mettons à votre disposition afin de compléter le
+procédure et pour vérifier que la procédure a été achevée avec su"&amp;"ccès. Voir https://www.de4a.eu/aboutproject pour plus de détails.
+")</f>
+        <v>Lorsque vous utilisez ce processus, vous pouvez demander directement des informations pertinentes et vous fournir
+Plus de version actuelle que nous avons.
+Vous pouvez vérifier les informations et choisir si vous souhaitez les utiliser ou non. Vous n'êtes pas obligé de demander les informations via ce service. Si ce processus annule, vous aurez la possibilité de
+Remplissez votre processus à la recherche et à l'envoi d'informations manuellement.
+Notez que ce service fait partie d'un projet pilote. En sélectionnant "j'accepte", il accepte de participer volontairement au programme pilote. Vous devez uniquement utiliser les informations que nous mettons à votre disposition afin de compléter le
+procédure et pour vérifier que la procédure a été achevée avec succès. Voir https://www.de4a.eu/aboutproject pour plus de détails.
+</v>
       </c>
       <c r="AA462" s="59"/>
       <c r="AB462" s="59"/>
@@ -39908,7 +39792,7 @@
     </row>
     <row r="463">
       <c r="A463" s="57" t="s">
-        <v>3301</v>
+        <v>3272</v>
       </c>
       <c r="B463" s="57" t="s">
         <v>3242</v>
@@ -39918,8 +39802,9 @@
       </c>
       <c r="D463" s="58"/>
       <c r="E463" s="59"/>
-      <c r="F463" s="57" t="s">
-        <v>3302</v>
+      <c r="F463" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N463,""es"",""ro"")"),"Dovezi furnizate de")</f>
+        <v>Dovezi furnizate de</v>
       </c>
       <c r="G463" s="59"/>
       <c r="H463" s="59"/>
@@ -39927,7 +39812,7 @@
         <v>0.0</v>
       </c>
       <c r="J463" s="57" t="s">
-        <v>3303</v>
+        <v>3273</v>
       </c>
       <c r="K463" s="59"/>
       <c r="L463" s="59"/>
@@ -39935,31 +39820,34 @@
         <v>1.0</v>
       </c>
       <c r="N463" s="57" t="s">
-        <v>3304</v>
+        <v>3274</v>
       </c>
       <c r="O463" s="59"/>
       <c r="P463" s="59"/>
       <c r="Q463" s="57">
         <v>1.0</v>
       </c>
-      <c r="R463" s="61" t="s">
-        <v>3305</v>
+      <c r="R463" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N463,""es"",""sl"")"),"Dokazi, ki jih predloži")</f>
+        <v>Dokazi, ki jih predloži</v>
       </c>
       <c r="S463" s="59"/>
       <c r="T463" s="59"/>
       <c r="U463" s="57">
         <v>0.0</v>
       </c>
-      <c r="V463" s="57" t="s">
-        <v>3306</v>
+      <c r="V463" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N463,""es"",""pt"")"),"Evidência fornecida por")</f>
+        <v>Evidência fornecida por</v>
       </c>
       <c r="W463" s="59"/>
       <c r="X463" s="59"/>
       <c r="Y463" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z463" s="57" t="s">
-        <v>3307</v>
+      <c r="Z463" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N463,""es"",""fr"")"),"Preuve fournie par")</f>
+        <v>Preuve fournie par</v>
       </c>
       <c r="AA463" s="59"/>
       <c r="AB463" s="59"/>
@@ -39969,7 +39857,7 @@
     </row>
     <row r="464">
       <c r="A464" s="57" t="s">
-        <v>3308</v>
+        <v>3275</v>
       </c>
       <c r="B464" s="57" t="s">
         <v>3242</v>
@@ -39979,8 +39867,9 @@
       </c>
       <c r="D464" s="58"/>
       <c r="E464" s="59"/>
-      <c r="F464" s="57" t="s">
-        <v>3309</v>
+      <c r="F464" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N464,""es"",""ro"")"),"Platforma de intermediere a datelor administrației generale spaniole")</f>
+        <v>Platforma de intermediere a datelor administrației generale spaniole</v>
       </c>
       <c r="G464" s="59"/>
       <c r="H464" s="59"/>
@@ -39988,7 +39877,7 @@
         <v>0.0</v>
       </c>
       <c r="J464" s="57" t="s">
-        <v>3310</v>
+        <v>3276</v>
       </c>
       <c r="K464" s="59"/>
       <c r="L464" s="59"/>
@@ -39996,31 +39885,34 @@
         <v>1.0</v>
       </c>
       <c r="N464" s="57" t="s">
-        <v>3311</v>
+        <v>3277</v>
       </c>
       <c r="O464" s="59"/>
       <c r="P464" s="59"/>
       <c r="Q464" s="57">
         <v>1.0</v>
       </c>
-      <c r="R464" s="61" t="s">
-        <v>3312</v>
+      <c r="R464" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N464,""es"",""sl"")"),"Podatkovni posredniški platformi splošne španske uprave")</f>
+        <v>Podatkovni posredniški platformi splošne španske uprave</v>
       </c>
       <c r="S464" s="59"/>
       <c r="T464" s="59"/>
       <c r="U464" s="57">
         <v>0.0</v>
       </c>
-      <c r="V464" s="57" t="s">
-        <v>3313</v>
+      <c r="V464" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N464,""es"",""pt"")"),"A plataforma de intermediação de dados da administração em espanhol em geral")</f>
+        <v>A plataforma de intermediação de dados da administração em espanhol em geral</v>
       </c>
       <c r="W464" s="59"/>
       <c r="X464" s="59"/>
       <c r="Y464" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z464" s="57" t="s">
-        <v>3314</v>
+      <c r="Z464" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N464,""es"",""fr"")"),"La plate-forme d'intermédiation de données de l'administration d'espagnol générale")</f>
+        <v>La plate-forme d'intermédiation de données de l'administration d'espagnol générale</v>
       </c>
       <c r="AA464" s="59"/>
       <c r="AB464" s="59"/>
@@ -40030,7 +39922,7 @@
     </row>
     <row r="465">
       <c r="A465" s="57" t="s">
-        <v>3315</v>
+        <v>3278</v>
       </c>
       <c r="B465" s="57" t="s">
         <v>3242</v>
@@ -40040,8 +39932,9 @@
       </c>
       <c r="D465" s="58"/>
       <c r="E465" s="59"/>
-      <c r="F465" s="57" t="s">
-        <v>3316</v>
+      <c r="F465" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N465,""es"",""ro"")"),"emit de")</f>
+        <v>emit de</v>
       </c>
       <c r="G465" s="59"/>
       <c r="H465" s="59"/>
@@ -40049,7 +39942,7 @@
         <v>0.0</v>
       </c>
       <c r="J465" s="57" t="s">
-        <v>3317</v>
+        <v>3279</v>
       </c>
       <c r="K465" s="59"/>
       <c r="L465" s="59"/>
@@ -40057,31 +39950,34 @@
         <v>1.0</v>
       </c>
       <c r="N465" s="57" t="s">
-        <v>3318</v>
+        <v>3280</v>
       </c>
       <c r="O465" s="59"/>
       <c r="P465" s="59"/>
       <c r="Q465" s="57">
         <v>1.0</v>
       </c>
-      <c r="R465" s="61" t="s">
-        <v>3319</v>
+      <c r="R465" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N465,""es"",""sl"")"),"oddajati")</f>
+        <v>oddajati</v>
       </c>
       <c r="S465" s="59"/>
       <c r="T465" s="59"/>
       <c r="U465" s="57">
         <v>0.0</v>
       </c>
-      <c r="V465" s="57" t="s">
-        <v>3320</v>
+      <c r="V465" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N465,""es"",""pt"")"),"emitido por")</f>
+        <v>emitido por</v>
       </c>
       <c r="W465" s="59"/>
       <c r="X465" s="59"/>
       <c r="Y465" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z465" s="57" t="s">
-        <v>3321</v>
+      <c r="Z465" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N465,""es"",""fr"")"),"émis par")</f>
+        <v>émis par</v>
       </c>
       <c r="AA465" s="59"/>
       <c r="AB465" s="59"/>
@@ -40091,7 +39987,7 @@
     </row>
     <row r="466">
       <c r="A466" s="57" t="s">
-        <v>3322</v>
+        <v>3281</v>
       </c>
       <c r="B466" s="57" t="s">
         <v>3242</v>
@@ -40101,8 +39997,9 @@
       </c>
       <c r="D466" s="58"/>
       <c r="E466" s="59"/>
-      <c r="F466" s="57" t="s">
-        <v>3323</v>
+      <c r="F466" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N466,""es"",""ro"")"),"Institutul Național de Statistică (INE)")</f>
+        <v>Institutul Național de Statistică (INE)</v>
       </c>
       <c r="G466" s="59"/>
       <c r="H466" s="59"/>
@@ -40110,7 +40007,7 @@
         <v>0.0</v>
       </c>
       <c r="J466" s="57" t="s">
-        <v>3324</v>
+        <v>3282</v>
       </c>
       <c r="K466" s="59"/>
       <c r="L466" s="59"/>
@@ -40118,7 +40015,7 @@
         <v>1.0</v>
       </c>
       <c r="N466" s="57" t="s">
-        <v>3325</v>
+        <v>3283</v>
       </c>
       <c r="O466" s="59"/>
       <c r="P466" s="59"/>
@@ -40126,23 +40023,25 @@
         <v>1.0</v>
       </c>
       <c r="R466" s="57" t="s">
-        <v>3326</v>
+        <v>3284</v>
       </c>
       <c r="S466" s="59"/>
       <c r="T466" s="59"/>
       <c r="U466" s="57">
         <v>0.0</v>
       </c>
-      <c r="V466" s="57" t="s">
-        <v>3327</v>
+      <c r="V466" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N466,""es"",""pt"")"),"Instituto Nacional de Estatísticas (INE)")</f>
+        <v>Instituto Nacional de Estatísticas (INE)</v>
       </c>
       <c r="W466" s="59"/>
       <c r="X466" s="59"/>
       <c r="Y466" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z466" s="57" t="s">
-        <v>3328</v>
+      <c r="Z466" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N466,""es"",""fr"")"),"Institut national des statistiques (INE)")</f>
+        <v>Institut national des statistiques (INE)</v>
       </c>
       <c r="AA466" s="59"/>
       <c r="AB466" s="59"/>
@@ -40152,7 +40051,7 @@
     </row>
     <row r="467">
       <c r="A467" s="57" t="s">
-        <v>3329</v>
+        <v>3285</v>
       </c>
       <c r="B467" s="57" t="s">
         <v>3242</v>
@@ -40162,8 +40061,9 @@
       </c>
       <c r="D467" s="58"/>
       <c r="E467" s="59"/>
-      <c r="F467" s="57" t="s">
-        <v>3330</v>
+      <c r="F467" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N467,""es"",""ro"")"),"Continua")</f>
+        <v>Continua</v>
       </c>
       <c r="G467" s="59"/>
       <c r="H467" s="59"/>
@@ -40171,7 +40071,7 @@
         <v>0.0</v>
       </c>
       <c r="J467" s="57" t="s">
-        <v>3331</v>
+        <v>3286</v>
       </c>
       <c r="K467" s="59"/>
       <c r="L467" s="59"/>
@@ -40179,31 +40079,34 @@
         <v>1.0</v>
       </c>
       <c r="N467" s="57" t="s">
-        <v>3332</v>
+        <v>3287</v>
       </c>
       <c r="O467" s="59"/>
       <c r="P467" s="59"/>
       <c r="Q467" s="57">
         <v>1.0</v>
       </c>
-      <c r="R467" s="57" t="s">
-        <v>3333</v>
+      <c r="R467" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N467,""es"",""sl"")"),"Nadaljevati")</f>
+        <v>Nadaljevati</v>
       </c>
       <c r="S467" s="59"/>
       <c r="T467" s="59"/>
       <c r="U467" s="57">
         <v>0.0</v>
       </c>
-      <c r="V467" s="57" t="s">
-        <v>3334</v>
+      <c r="V467" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N467,""es"",""pt"")"),"Continuar")</f>
+        <v>Continuar</v>
       </c>
       <c r="W467" s="59"/>
       <c r="X467" s="59"/>
       <c r="Y467" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z467" s="57" t="s">
-        <v>3335</v>
+      <c r="Z467" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N467,""es"",""fr"")"),"Procéder")</f>
+        <v>Procéder</v>
       </c>
       <c r="AA467" s="59"/>
       <c r="AB467" s="59"/>
@@ -40213,7 +40116,7 @@
     </row>
     <row r="468">
       <c r="A468" s="57" t="s">
-        <v>3336</v>
+        <v>3288</v>
       </c>
       <c r="B468" s="57" t="s">
         <v>3242</v>
@@ -40223,8 +40126,9 @@
       </c>
       <c r="D468" s="58"/>
       <c r="E468" s="59"/>
-      <c r="F468" s="57" t="s">
-        <v>3330</v>
+      <c r="F468" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N468,""es"",""ro"")"),"Declin")</f>
+        <v>Declin</v>
       </c>
       <c r="G468" s="59"/>
       <c r="H468" s="59"/>
@@ -40232,7 +40136,7 @@
         <v>0.0</v>
       </c>
       <c r="J468" s="57" t="s">
-        <v>3337</v>
+        <v>3289</v>
       </c>
       <c r="K468" s="59"/>
       <c r="L468" s="59"/>
@@ -40240,31 +40144,34 @@
         <v>1.0</v>
       </c>
       <c r="N468" s="57" t="s">
-        <v>3338</v>
+        <v>3290</v>
       </c>
       <c r="O468" s="59"/>
       <c r="P468" s="59"/>
       <c r="Q468" s="57">
         <v>1.0</v>
       </c>
-      <c r="R468" s="57" t="s">
-        <v>3339</v>
+      <c r="R468" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N468,""es"",""sl"")"),"Upad")</f>
+        <v>Upad</v>
       </c>
       <c r="S468" s="59"/>
       <c r="T468" s="59"/>
       <c r="U468" s="57">
         <v>0.0</v>
       </c>
-      <c r="V468" s="57" t="s">
-        <v>3340</v>
+      <c r="V468" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N468,""es"",""pt"")"),"Declínio")</f>
+        <v>Declínio</v>
       </c>
       <c r="W468" s="59"/>
       <c r="X468" s="59"/>
       <c r="Y468" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z468" s="57" t="s">
-        <v>3335</v>
+      <c r="Z468" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N468,""es"",""fr"")"),"Déclin")</f>
+        <v>Déclin</v>
       </c>
       <c r="AA468" s="59"/>
       <c r="AB468" s="59"/>
@@ -40274,7 +40181,7 @@
     </row>
     <row r="469">
       <c r="A469" s="57" t="s">
-        <v>3341</v>
+        <v>3291</v>
       </c>
       <c r="B469" s="57" t="s">
         <v>3242</v>
@@ -40284,8 +40191,9 @@
       </c>
       <c r="D469" s="58"/>
       <c r="E469" s="59"/>
-      <c r="F469" s="57" t="s">
-        <v>3342</v>
+      <c r="F469" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N469,""es"",""ro"")"),"Probele solicitate vor fi trimise următoarei autorități")</f>
+        <v>Probele solicitate vor fi trimise următoarei autorități</v>
       </c>
       <c r="G469" s="59"/>
       <c r="H469" s="59"/>
@@ -40293,7 +40201,7 @@
         <v>0.0</v>
       </c>
       <c r="J469" s="57" t="s">
-        <v>3343</v>
+        <v>3292</v>
       </c>
       <c r="K469" s="59"/>
       <c r="L469" s="59"/>
@@ -40301,31 +40209,34 @@
         <v>1.0</v>
       </c>
       <c r="N469" s="57" t="s">
-        <v>3344</v>
+        <v>3293</v>
       </c>
       <c r="O469" s="59"/>
       <c r="P469" s="59"/>
       <c r="Q469" s="57">
         <v>1.0</v>
       </c>
-      <c r="R469" s="57" t="s">
-        <v>3345</v>
+      <c r="R469" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N469,""es"",""sl"")"),"Zahtevani dokazi bodo poslani naslednjim organom")</f>
+        <v>Zahtevani dokazi bodo poslani naslednjim organom</v>
       </c>
       <c r="S469" s="59"/>
       <c r="T469" s="59"/>
       <c r="U469" s="57">
         <v>0.0</v>
       </c>
-      <c r="V469" s="57" t="s">
-        <v>3346</v>
+      <c r="V469" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N469,""es"",""pt"")"),"A evidência solicitada será enviada para a seguinte autoridade")</f>
+        <v>A evidência solicitada será enviada para a seguinte autoridade</v>
       </c>
       <c r="W469" s="59"/>
       <c r="X469" s="59"/>
       <c r="Y469" s="57">
         <v>0.0</v>
       </c>
-      <c r="Z469" s="57" t="s">
-        <v>3347</v>
+      <c r="Z469" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(N469,""es"",""fr"")"),"Les preuves demandées seront envoyées à l'autorité suivante")</f>
+        <v>Les preuves demandées seront envoyées à l'autorité suivante</v>
       </c>
       <c r="AA469" s="59"/>
       <c r="AB469" s="59"/>
